--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="373">
   <si>
     <t>Asset</t>
   </si>
@@ -1145,6 +1145,9 @@
   </si>
   <si>
     <t>Being amount received from DA5932-1518839142 through NEST Payment Gateway</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1953,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,6 +2499,9 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>350000</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="H15" s="33">
         <f>F6+F8</f>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="374">
   <si>
     <t>Asset</t>
   </si>
@@ -1148,6 +1148,9 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1956,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2534,6 +2537,9 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>15000</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="J16" s="85">
         <f t="shared" si="1"/>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="609">
   <si>
     <t>Asset</t>
   </si>
@@ -1816,7 +1816,46 @@
     <t>BV-18/19-589</t>
   </si>
   <si>
-    <t>.</t>
+    <t>09-21-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001539051584/ZERODHA/1537500802152487     </t>
+  </si>
+  <si>
+    <t>09-24-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001540757761/ZERODHA/1537775427808391     </t>
+  </si>
+  <si>
+    <t>09-27-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001542940182/ZERODHA/5380474274130163     </t>
+  </si>
+  <si>
+    <t>09-28-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001543477883/ZERODHA/1538117294975418     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001543636709/ZERODHA/1538125785072015     </t>
+  </si>
+  <si>
+    <t>10-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001546081526/ZERODHA/5383807458601072     </t>
+  </si>
+  <si>
+    <t>10-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIL/ONL/001548766302/ZERODHA/5386441386132047     </t>
+  </si>
+  <si>
+    <t>Oct 2018</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1916,6 +1955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,7 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2307,6 +2352,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2322,6 +2372,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2642,21 +2694,21 @@
       <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="107"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110"/>
       <c r="P1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="108" t="s">
+      <c r="Q1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="109"/>
+      <c r="R1" s="112"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -3476,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O191"/>
+  <dimension ref="B2:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5830,7 +5882,7 @@
         <v>43334.22</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="19"/>
       <c r="C113" s="20">
         <v>43132</v>
@@ -5851,7 +5903,7 @@
         <v>25377.49</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="5">
         <v>43123</v>
@@ -5872,7 +5924,7 @@
         <v>10210.450000000001</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="5">
         <v>43115</v>
@@ -5893,7 +5945,7 @@
         <v>25301.77</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="5">
         <v>43112</v>
@@ -5914,7 +5966,7 @@
         <v>6907.83</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="5">
         <v>43110</v>
@@ -5935,7 +5987,7 @@
         <v>14974.11</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="5">
         <v>43103</v>
@@ -5956,7 +6008,7 @@
         <v>8103.27</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="10"/>
       <c r="C119" s="11">
         <v>43097</v>
@@ -5977,7 +6029,7 @@
         <v>2113.89</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="10"/>
       <c r="C120" s="11">
         <v>43090</v>
@@ -5998,7 +6050,7 @@
         <v>1854.78</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="10"/>
       <c r="C121" s="11">
         <v>43087</v>
@@ -6019,7 +6071,7 @@
         <v>8898.2999999999993</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="10"/>
       <c r="C122" s="11">
         <v>43083</v>
@@ -6040,7 +6092,7 @@
         <v>25272.81</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="15"/>
       <c r="C123" s="16">
         <v>42870</v>
@@ -6061,7 +6113,7 @@
         <v>20479.48</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="102"/>
       <c r="C124" s="103">
         <v>43347</v>
@@ -6075,14 +6127,14 @@
       <c r="F124" s="102">
         <v>0</v>
       </c>
-      <c r="G124" s="102">
+      <c r="G124" s="113">
         <v>5000</v>
       </c>
       <c r="H124" s="104">
         <v>17641.0854</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="102"/>
       <c r="C125" s="103">
         <v>43348</v>
@@ -6096,14 +6148,14 @@
       <c r="F125" s="102">
         <v>0</v>
       </c>
-      <c r="G125" s="102">
+      <c r="G125" s="113">
         <v>2500</v>
       </c>
       <c r="H125" s="104">
         <v>3536.2372</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="102"/>
       <c r="C126" s="103">
         <v>43348</v>
@@ -6117,17 +6169,14 @@
       <c r="F126" s="102">
         <v>0</v>
       </c>
-      <c r="G126" s="102">
+      <c r="G126" s="113">
         <v>5000</v>
       </c>
       <c r="H126" s="104">
         <v>8536.2371999999996</v>
       </c>
-      <c r="I126" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="102"/>
       <c r="C127" s="103">
         <v>43349</v>
@@ -6141,14 +6190,14 @@
       <c r="F127" s="102">
         <v>0</v>
       </c>
-      <c r="G127" s="102">
+      <c r="G127" s="113">
         <v>2000</v>
       </c>
       <c r="H127" s="104">
         <v>2908.9229</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="102"/>
       <c r="C128" s="103">
         <v>43349</v>
@@ -6162,7 +6211,7 @@
       <c r="F128" s="102">
         <v>0</v>
       </c>
-      <c r="G128" s="102">
+      <c r="G128" s="113">
         <v>2500</v>
       </c>
       <c r="H128" s="104">
@@ -6183,7 +6232,7 @@
       <c r="F129" s="102">
         <v>0</v>
       </c>
-      <c r="G129" s="102">
+      <c r="G129" s="113">
         <v>6000</v>
       </c>
       <c r="H129" s="104">
@@ -6191,423 +6240,559 @@
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B130" s="102"/>
-      <c r="C130" s="103">
+      <c r="B130" s="105"/>
+      <c r="C130" s="106">
         <v>43355</v>
       </c>
-      <c r="D130" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="102" t="s">
+      <c r="D130" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="F130" s="102">
-        <v>0</v>
-      </c>
-      <c r="G130" s="102">
+      <c r="F130" s="105">
+        <v>0</v>
+      </c>
+      <c r="G130" s="114">
         <v>2500</v>
       </c>
-      <c r="H130" s="104">
+      <c r="H130" s="107">
         <v>406.37290000000002</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G131" s="102">
+      <c r="B131" s="105"/>
+      <c r="C131" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="D131" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="E131" s="105" t="s">
+        <v>596</v>
+      </c>
+      <c r="F131" s="105"/>
+      <c r="G131" s="114">
+        <v>9500</v>
+      </c>
+      <c r="H131" s="105"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="105"/>
+      <c r="C132" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="D132" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="E132" s="105" t="s">
+        <v>598</v>
+      </c>
+      <c r="F132" s="105"/>
+      <c r="G132" s="114">
+        <v>10000</v>
+      </c>
+      <c r="H132" s="105"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" s="105"/>
+      <c r="C133" s="105" t="s">
+        <v>599</v>
+      </c>
+      <c r="D133" s="105" t="s">
+        <v>599</v>
+      </c>
+      <c r="E133" s="105" t="s">
+        <v>600</v>
+      </c>
+      <c r="F133" s="105"/>
+      <c r="G133" s="114">
+        <v>10000</v>
+      </c>
+      <c r="H133" s="105"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" s="105"/>
+      <c r="C134" s="105" t="s">
+        <v>601</v>
+      </c>
+      <c r="D134" s="105" t="s">
+        <v>601</v>
+      </c>
+      <c r="E134" s="105" t="s">
+        <v>602</v>
+      </c>
+      <c r="F134" s="105"/>
+      <c r="G134" s="114">
         <v>11500</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G132" s="14">
-        <f>SUM(G2:G131)</f>
-        <v>1596500</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G133" s="14"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B134" s="15"/>
-      <c r="C134" s="16">
+      <c r="H134" s="105"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" s="105"/>
+      <c r="C135" s="105" t="s">
+        <v>601</v>
+      </c>
+      <c r="D135" s="105" t="s">
+        <v>601</v>
+      </c>
+      <c r="E135" s="105" t="s">
+        <v>603</v>
+      </c>
+      <c r="F135" s="105"/>
+      <c r="G135" s="114">
+        <v>3000</v>
+      </c>
+      <c r="H135" s="105"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="28"/>
+      <c r="C136" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="F136" s="28"/>
+      <c r="G136" s="27">
+        <v>3500</v>
+      </c>
+      <c r="H136" s="28"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="28"/>
+      <c r="C137" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="F137" s="28"/>
+      <c r="G137" s="27">
+        <v>3000</v>
+      </c>
+      <c r="H137" s="28"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G138" s="102"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G139" s="14">
+        <f>SUM(G2:G138)</f>
+        <v>1635500</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" s="15"/>
+      <c r="C141" s="16">
         <v>43262</v>
       </c>
-      <c r="D134" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="15" t="s">
+      <c r="D141" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F141" s="18">
         <v>150000</v>
       </c>
-      <c r="G134" s="71">
-        <v>0</v>
-      </c>
-      <c r="H134" s="71">
+      <c r="G141" s="71">
+        <v>0</v>
+      </c>
+      <c r="H141" s="71">
         <v>1568.7</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B135" s="15"/>
-      <c r="C135" s="16">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="15"/>
+      <c r="C142" s="16">
         <v>43196</v>
       </c>
-      <c r="D135" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135" s="15" t="s">
+      <c r="D142" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F135" s="18">
+      <c r="F142" s="18">
         <v>140000</v>
       </c>
-      <c r="G135" s="17">
-        <v>0</v>
-      </c>
-      <c r="H135" s="17">
+      <c r="G142" s="17">
+        <v>0</v>
+      </c>
+      <c r="H142" s="17">
         <v>121320.02</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B136" s="15"/>
-      <c r="C136" s="16">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="15"/>
+      <c r="C143" s="16">
         <v>43147</v>
       </c>
-      <c r="D136" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="15" t="s">
+      <c r="D143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F143" s="18">
         <v>10000</v>
       </c>
-      <c r="G136" s="17">
-        <v>0</v>
-      </c>
-      <c r="H136" s="17">
+      <c r="G143" s="17">
+        <v>0</v>
+      </c>
+      <c r="H143" s="17">
         <v>33762.646000000001</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B137" s="15"/>
-      <c r="C137" s="16">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="15"/>
+      <c r="C144" s="16">
         <v>43187</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="15" t="s">
+      <c r="D144" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F144" s="18">
         <v>117000</v>
       </c>
-      <c r="G137" s="17">
-        <v>0</v>
-      </c>
-      <c r="H137" s="17">
+      <c r="G144" s="17">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17">
         <v>-115711.27</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B138" s="15"/>
-      <c r="C138" s="16">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" s="15"/>
+      <c r="C145" s="16">
         <v>43147</v>
       </c>
-      <c r="D138" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="15" t="s">
+      <c r="D145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F145" s="18">
         <v>10000</v>
       </c>
-      <c r="G138" s="17">
-        <v>0</v>
-      </c>
-      <c r="H138" s="17">
+      <c r="G145" s="17">
+        <v>0</v>
+      </c>
+      <c r="H145" s="17">
         <v>33762.65</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B139" s="15"/>
-      <c r="C139" s="16">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" s="15"/>
+      <c r="C146" s="16">
         <v>43346</v>
       </c>
-      <c r="D139" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139" s="15" t="s">
+      <c r="D146" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F146" s="18">
         <v>7500</v>
       </c>
-      <c r="G139" s="17">
-        <v>0</v>
-      </c>
-      <c r="H139" s="17"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="9">
-        <f>SUM(F134:F139)</f>
+      <c r="G146" s="17">
+        <v>0</v>
+      </c>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F147" s="9">
+        <f>SUM(F141:F146)</f>
         <v>434500</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F143" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
         <v>147</v>
       </c>
-      <c r="G143" s="23">
-        <f>G132-F140</f>
-        <v>1162000</v>
-      </c>
-    </row>
-    <row r="145" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F146" s="63"/>
-      <c r="G146" s="64" t="s">
+      <c r="G150" s="23">
+        <f>G139-F147</f>
+        <v>1201000</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F153" s="63"/>
+      <c r="G153" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="H146" s="64"/>
-      <c r="I146" s="65" t="s">
+      <c r="H153" s="64"/>
+      <c r="I153" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="J146" s="66" t="s">
+      <c r="J153" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F147" s="67" t="s">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F154" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="G147" s="51">
-        <f>I147-J147</f>
+      <c r="G154" s="51">
+        <f>I154-J154</f>
         <v>20000</v>
       </c>
-      <c r="H147" s="52"/>
-      <c r="I147" s="53">
+      <c r="H154" s="52"/>
+      <c r="I154" s="53">
         <f>G123</f>
         <v>20000</v>
       </c>
-      <c r="J147" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F148" s="67" t="s">
+      <c r="J154" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F155" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G148" s="55">
-        <f t="shared" ref="G148:G154" si="0">I148-J148</f>
+      <c r="G155" s="55">
+        <f t="shared" ref="G155:G161" si="0">I155-J155</f>
         <v>44000</v>
       </c>
-      <c r="H148" s="56"/>
-      <c r="I148" s="57">
+      <c r="H155" s="56"/>
+      <c r="I155" s="57">
         <f>SUM(G119:G122)</f>
         <v>44000</v>
       </c>
-      <c r="J148" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F149" s="67" t="s">
+      <c r="J155" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F156" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="G149" s="55">
+      <c r="G156" s="55">
         <f t="shared" si="0"/>
         <v>61000</v>
       </c>
-      <c r="H149" s="56"/>
-      <c r="I149" s="57">
+      <c r="H156" s="56"/>
+      <c r="I156" s="57">
         <f>SUM(G114:G118)</f>
         <v>61000</v>
       </c>
-      <c r="J149" s="58"/>
-    </row>
-    <row r="150" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F150" s="67" t="s">
+      <c r="J156" s="58"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F157" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="G150" s="69">
+      <c r="G157" s="69">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="H150" s="56"/>
-      <c r="I150" s="57">
+      <c r="H157" s="56"/>
+      <c r="I157" s="57">
         <f>SUM(G101:G113)</f>
         <v>310000</v>
       </c>
-      <c r="J150" s="58">
+      <c r="J157" s="58">
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F151" s="67" t="s">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F158" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="G151" s="70">
+      <c r="G158" s="70">
         <f t="shared" si="0"/>
         <v>135000</v>
       </c>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57">
+      <c r="H158" s="56"/>
+      <c r="I158" s="57">
         <f>SUM(G80:G100)</f>
         <v>252000</v>
       </c>
-      <c r="J151" s="58">
+      <c r="J158" s="58">
         <v>117000</v>
       </c>
     </row>
-    <row r="152" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F152" s="67" t="s">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F159" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="70">
+      <c r="G159" s="70">
         <f t="shared" si="0"/>
         <v>101000</v>
       </c>
-      <c r="H152" s="56"/>
-      <c r="I152" s="57">
+      <c r="H159" s="56"/>
+      <c r="I159" s="57">
         <f>SUM(G65:G79)</f>
         <v>241000</v>
       </c>
-      <c r="J152" s="58">
+      <c r="J159" s="58">
         <v>140000</v>
       </c>
     </row>
-    <row r="153" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F153" s="67" t="s">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F160" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="69">
+      <c r="G160" s="69">
         <f t="shared" si="0"/>
         <v>284000</v>
       </c>
-      <c r="H153" s="56"/>
-      <c r="I153" s="57">
+      <c r="H160" s="56"/>
+      <c r="I160" s="57">
         <f>SUM(G35:G64)</f>
         <v>284000</v>
       </c>
-      <c r="J153" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F154" s="67" t="s">
+      <c r="J160" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F161" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="G154" s="69">
+      <c r="G161" s="69">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="H154" s="56"/>
-      <c r="I154" s="57">
+      <c r="H161" s="56"/>
+      <c r="I161" s="57">
         <f>SUM(G19:G34)</f>
         <v>230000</v>
       </c>
-      <c r="J154" s="58">
-        <f>F134</f>
+      <c r="J161" s="58">
+        <f>F141</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="155" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F155" s="67" t="s">
+    <row r="162" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F162" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="G155" s="55">
-        <f>I155-J155</f>
+      <c r="G162" s="55">
+        <f>I162-J162</f>
         <v>60000</v>
       </c>
-      <c r="H155" s="56"/>
-      <c r="I155" s="57">
+      <c r="H162" s="56"/>
+      <c r="I162" s="57">
         <f>SUM(G12:G18)</f>
         <v>60000</v>
       </c>
-      <c r="J155" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F156" s="67" t="s">
+      <c r="J162" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F163" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="G156" s="55">
-        <f>I156-J156</f>
+      <c r="G163" s="55">
+        <f>I163-J163</f>
         <v>57500</v>
       </c>
-      <c r="H156" s="56"/>
-      <c r="I156" s="57">
+      <c r="H163" s="56"/>
+      <c r="I163" s="57">
         <f>SUM(G2:G11)</f>
         <v>57500</v>
       </c>
-      <c r="J156" s="58"/>
-    </row>
-    <row r="157" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F157" s="67" t="s">
+      <c r="J163" s="58"/>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F164" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="G157" s="55">
-        <f>I157-J157</f>
-        <v>29500</v>
-      </c>
-      <c r="H157" s="56"/>
-      <c r="I157" s="57">
-        <f>SUM(G124:G131)</f>
-        <v>37000</v>
-      </c>
-      <c r="J157" s="58">
+      <c r="G164" s="55">
+        <f>I164-J164</f>
+        <v>62000</v>
+      </c>
+      <c r="H164" s="56"/>
+      <c r="I164" s="57">
+        <f>SUM(G124:G135)</f>
+        <v>69500</v>
+      </c>
+      <c r="J164" s="58">
         <v>7500</v>
       </c>
     </row>
-    <row r="158" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F158" s="67"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="60"/>
-      <c r="I158" s="61"/>
-      <c r="J158" s="62"/>
-    </row>
-    <row r="159" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F159" s="68"/>
-      <c r="G159" s="60">
-        <f>SUM(G147:G158)</f>
-        <v>1172000</v>
-      </c>
-      <c r="H159" s="60"/>
-      <c r="I159" s="61">
-        <f>SUM(I147:I156)</f>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F165" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="G165" s="55">
+        <f>I165-J165</f>
+        <v>6500</v>
+      </c>
+      <c r="H165" s="56"/>
+      <c r="I165" s="57">
+        <f>SUM(G136:G137)</f>
+        <v>6500</v>
+      </c>
+      <c r="J165" s="58"/>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F166" s="67"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="58"/>
+    </row>
+    <row r="167" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F167" s="67"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="62"/>
+    </row>
+    <row r="168" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F168" s="68"/>
+      <c r="G168" s="60">
+        <f>SUM(G154:G167)</f>
+        <v>1211000</v>
+      </c>
+      <c r="H168" s="60"/>
+      <c r="I168" s="61">
+        <f>SUM(I154:I163)</f>
         <v>1559500</v>
       </c>
-      <c r="J159" s="62">
-        <f>SUM(J147:J158)</f>
+      <c r="J168" s="62">
+        <f>SUM(J154:J167)</f>
         <v>424500</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="41">
-        <f>SUM(G147:G151)</f>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I170" s="41"/>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G171" s="41">
+        <f>SUM(G154:G158)</f>
         <v>560000</v>
       </c>
     </row>
-    <row r="163" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G163" s="41">
-        <f>SUM(G152:G158)</f>
-        <v>612000</v>
-      </c>
-    </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G164" s="42">
-        <f>SUM(G161:G163)</f>
-        <v>1172000</v>
-      </c>
-    </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C188" s="2"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
+    <row r="172" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G172" s="41">
+        <f>SUM(G159:G167)</f>
+        <v>651000</v>
+      </c>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G173" s="42">
+        <f>SUM(G170:G172)</f>
+        <v>1211000</v>
+      </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
@@ -6626,6 +6811,12 @@
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C192" s="2"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -1,41 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21009"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8B2A7ADF8666500C51A261241CE9D03407C6000C" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="2" r:id="rId1"/>
     <sheet name="Zerodha" sheetId="8" r:id="rId2"/>
     <sheet name="LEDGER" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LEDGER!$B$1:$K$472</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LEDGER!$B$1:$K$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$C$67</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="1027">
   <si>
     <t>Asset</t>
   </si>
@@ -2914,17 +2911,218 @@
     <t>BV-18/19-710</t>
   </si>
   <si>
-    <t>Closing Balance</t>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>JV-18/19-22666</t>
+  </si>
+  <si>
+    <t>Funds added using payment gateway from DA5932 with reference number 1551598680</t>
+  </si>
+  <si>
+    <t>BR-18/19-22938</t>
+  </si>
+  <si>
+    <t>BV-18/19-715</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>JV-18/19-22861</t>
+  </si>
+  <si>
+    <t>Funds added using payment gateway from DA5932 with reference number 1552708064</t>
+  </si>
+  <si>
+    <t>BR-18/19-23103</t>
+  </si>
+  <si>
+    <t>BV-18/19-721</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>BV-18/19-731</t>
+  </si>
+  <si>
+    <t>17/09/2018</t>
+  </si>
+  <si>
+    <t>OM MEDICALS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>18/09/2018</t>
+  </si>
+  <si>
+    <t>CASH BACK REDEMPTION</t>
+  </si>
+  <si>
+    <t>VARUN ENTERPRISES SHEL Chennai RegioIN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>20/09/2018</t>
+  </si>
+  <si>
+    <t>AMAZON.IN IN</t>
+  </si>
+  <si>
+    <t>VENKATESWARA FOODS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>VISA BILLPAY-VODAFONE IN</t>
+  </si>
+  <si>
+    <t>GONGURAA CHENNAI IN</t>
+  </si>
+  <si>
+    <t>21/09/2018</t>
+  </si>
+  <si>
+    <t>PARADISE FOOD COURT PV CHENNAI IN</t>
+  </si>
+  <si>
+    <t>SAPPDA VANGA CHENNAI IN</t>
+  </si>
+  <si>
+    <t>22/09/2018</t>
+  </si>
+  <si>
+    <t>AYSHA HYPER MART CHENNAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>Flipkart Payments IN</t>
+  </si>
+  <si>
+    <t>FRESH AND MORE CHENNAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>24/09/2018</t>
+  </si>
+  <si>
+    <t>THALAPPAKATTI BRIYANI CHENNAI IN</t>
+  </si>
+  <si>
+    <t>25/09/2018</t>
+  </si>
+  <si>
+    <t>26/09/2018</t>
+  </si>
+  <si>
+    <t>MADURAI PANDIAN HOTEL CHENNAI IN</t>
+  </si>
+  <si>
+    <t>27/09/2018</t>
+  </si>
+  <si>
+    <t>DINDIGUL THALAPPAKATTI CHENNAI IN</t>
+  </si>
+  <si>
+    <t>28/09/2018</t>
+  </si>
+  <si>
+    <t>CALIFORNIA BURRITO CHENNAI IN</t>
+  </si>
+  <si>
+    <t>29/09/2018</t>
+  </si>
+  <si>
+    <t>NUTS N SPICES CHENNAI IN</t>
+  </si>
+  <si>
+    <t>30/09/2018</t>
+  </si>
+  <si>
+    <t>SARAVANA STORES (TEX) 1 Chennai IN</t>
+  </si>
+  <si>
+    <t>N N MOBILES CHENNAI IN</t>
+  </si>
+  <si>
+    <t>PAYMENT RECD, THANK YOU</t>
+  </si>
+  <si>
+    <t>MARUTI INSURANCE THE N MUMBAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>FIVE STAR CHAT AND SAN CHENNAI IN</t>
+  </si>
+  <si>
+    <t>SANGEETHA VEG CHENNAI IN</t>
+  </si>
+  <si>
+    <t>THALAPPAKATTI HOTELS ( CHENNAI IN</t>
+  </si>
+  <si>
+    <t>CHENNAI BOOKS AND STAT CHENNAI IN</t>
+  </si>
+  <si>
+    <t>HOTEL SARAVANA BHAVAN CHENNAI IN</t>
+  </si>
+  <si>
+    <t>AMAZON.IN IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>FRESH AND MORE CHENNAI IN</t>
+  </si>
+  <si>
+    <t>Accelyst Solutions Pvt MUMBAI IN</t>
+  </si>
+  <si>
+    <t>FOODEXO CHENNAI IN</t>
+  </si>
+  <si>
+    <t>13/10/2018</t>
+  </si>
+  <si>
+    <t>VARUN ENTERPRISES SHEL CHENNAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>14/10/2018</t>
+  </si>
+  <si>
+    <t>AYSHA HYPER MART CHENNAI IN</t>
+  </si>
+  <si>
+    <t>ONLINE RECHARGE SERVICES IN</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>16/10/2018</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>One time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2963,8 +3161,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3046,6 +3265,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1FFD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,42 +3547,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3355,7 +3593,7 @@
     <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3437,48 +3675,48 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3489,21 +3727,62 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3520,8 +3799,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3529,11 +3809,11 @@
   <colors>
     <mruColors>
       <color rgb="FFF1FFD5"/>
+      <color rgb="FF6699FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF3366FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FF6699FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3545,6 +3825,1327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Car</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telephone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grocery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>One time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8522.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95B6-40EB-A8E3-78FBBD6A3B8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3809,35 +5410,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="18" customWidth="1"/>
+    <col min="15" max="16" width="10.6640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.28515625" style="5"/>
+    <col min="18" max="18" width="11.5546875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3849,28 +5450,28 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110"/>
       <c r="P1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="97"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="R1" s="112"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <v>155.66</v>
+        <v>5.66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
@@ -3902,12 +5503,12 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="35"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>160.86000000000001</v>
+        <v>10.86</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
@@ -3932,7 +5533,7 @@
       <c r="Q3" s="36"/>
       <c r="R3" s="37"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3967,7 +5568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3977,12 +5578,14 @@
         <v>15</v>
       </c>
       <c r="F5" s="44">
-        <v>31969</v>
+        <v>49806.8</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>3656.2</v>
+      </c>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="L5" s="17"/>
@@ -3997,7 +5600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +5647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
@@ -4082,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
@@ -4116,7 +5719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="D9" s="3"/>
       <c r="H9" s="4"/>
@@ -4143,7 +5746,7 @@
       <c r="Q9" s="23"/>
       <c r="R9" s="38"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -4176,23 +5779,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11">
         <f>SUM(C2:C10)</f>
-        <v>5458.0599999999995</v>
+        <v>5158.0600000000004</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>90234</v>
+        <v>108071.8</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
         <f>SUM(H2:H10)</f>
-        <v>32864.833333333328</v>
+        <v>36521.033333333326</v>
       </c>
       <c r="J11" s="23">
         <v>12</v>
@@ -4217,7 +5820,7 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="38"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J12" s="23">
         <v>11</v>
       </c>
@@ -4241,13 +5844,13 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="38"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-84775.94</v>
+        <v>-102913.74</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4274,7 +5877,7 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="38"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -4304,7 +5907,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="38"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" s="13">
         <v>30000</v>
       </c>
@@ -4335,7 +5938,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="38"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="13">
         <v>50000</v>
       </c>
@@ -4362,7 +5965,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="38"/>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17" s="13">
         <v>15000</v>
       </c>
@@ -4389,7 +5992,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="38"/>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>100000</v>
       </c>
@@ -4416,7 +6019,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="38"/>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>28000</v>
       </c>
@@ -4443,7 +6046,11 @@
       <c r="Q19" s="23"/>
       <c r="R19" s="38"/>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <f>5000+5000</f>
+        <v>10000</v>
+      </c>
       <c r="J20" s="23">
         <v>3</v>
       </c>
@@ -4467,7 +6074,10 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>5000</v>
+      </c>
       <c r="J21" s="23">
         <v>2</v>
       </c>
@@ -4491,10 +6101,10 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="38"/>
     </row>
-    <row r="22" spans="3:18" ht="15" thickBot="1">
+    <row r="22" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="14">
         <f>SUM(C14:C21)</f>
-        <v>1423000</v>
+        <v>1438000</v>
       </c>
       <c r="J22" s="23">
         <v>1</v>
@@ -4519,7 +6129,7 @@
       <c r="Q22" s="26"/>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="3:18" ht="15" thickBot="1">
+    <row r="23" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -4547,16 +6157,16 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="M25" s="17">
         <f>M23+P23</f>
         <v>248420</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4580,7 +6190,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" ht="15" thickBot="1">
+    <row r="27" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L27" s="18" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +6204,7 @@
         <v>18225</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -4610,12 +6220,12 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -4623,12 +6233,12 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -4644,30 +6254,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="48"/>
+    <col min="1" max="1" width="8.88671875" style="48"/>
     <col min="2" max="2" width="4" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="48"/>
+    <col min="11" max="11" width="7.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="51">
         <v>2</v>
       </c>
@@ -4699,7 +6309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>42</v>
       </c>
@@ -4731,7 +6341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="50">
         <v>45</v>
       </c>
@@ -4763,7 +6373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="50">
         <v>50</v>
       </c>
@@ -4795,7 +6405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="50">
         <v>54</v>
       </c>
@@ -4827,7 +6437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="49">
         <v>56</v>
       </c>
@@ -4859,7 +6469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="49">
         <v>58</v>
       </c>
@@ -4891,7 +6501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="49">
         <v>62</v>
       </c>
@@ -4923,7 +6533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="49">
         <v>65</v>
       </c>
@@ -4955,7 +6565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="49">
         <v>68</v>
       </c>
@@ -4987,7 +6597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="54">
         <v>74</v>
       </c>
@@ -5019,7 +6629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="54">
         <v>79</v>
       </c>
@@ -5051,7 +6661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="54">
         <v>80</v>
       </c>
@@ -5083,7 +6693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="54">
         <v>84</v>
       </c>
@@ -5115,7 +6725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="54">
         <v>87</v>
       </c>
@@ -5147,7 +6757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="54">
         <v>92</v>
       </c>
@@ -5179,7 +6789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="54">
         <v>93</v>
       </c>
@@ -5211,7 +6821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="54">
         <v>98</v>
       </c>
@@ -5243,7 +6853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="54">
         <v>100</v>
       </c>
@@ -5275,7 +6885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="54">
         <v>104</v>
       </c>
@@ -5307,7 +6917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="54">
         <v>108</v>
       </c>
@@ -5339,7 +6949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>109</v>
       </c>
@@ -5371,7 +6981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>110</v>
       </c>
@@ -5403,7 +7013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="55">
         <v>113</v>
       </c>
@@ -5435,7 +7045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="55">
         <v>116</v>
       </c>
@@ -5467,7 +7077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="55">
         <v>121</v>
       </c>
@@ -5499,7 +7109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="55">
         <v>122</v>
       </c>
@@ -5531,7 +7141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="55">
         <v>125</v>
       </c>
@@ -5563,7 +7173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="55">
         <v>129</v>
       </c>
@@ -5595,7 +7205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="55">
         <v>130</v>
       </c>
@@ -5627,7 +7237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="55">
         <v>131</v>
       </c>
@@ -5659,7 +7269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="55">
         <v>133</v>
       </c>
@@ -5691,7 +7301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="55">
         <v>134</v>
       </c>
@@ -5723,7 +7333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="55">
         <v>139</v>
       </c>
@@ -5755,7 +7365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="55">
         <v>140</v>
       </c>
@@ -5787,7 +7397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="55">
         <v>145</v>
       </c>
@@ -5819,7 +7429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="55">
         <v>146</v>
       </c>
@@ -5851,7 +7461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="55">
         <v>149</v>
       </c>
@@ -5883,7 +7493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="55">
         <v>152</v>
       </c>
@@ -5915,7 +7525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="55">
         <v>155</v>
       </c>
@@ -5947,7 +7557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="55">
         <v>157</v>
       </c>
@@ -5979,7 +7589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="55">
         <v>160</v>
       </c>
@@ -6011,7 +7621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="55">
         <v>164</v>
       </c>
@@ -6043,7 +7653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="55">
         <v>165</v>
       </c>
@@ -6075,7 +7685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="56">
         <v>172</v>
       </c>
@@ -6107,7 +7717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="56">
         <v>173</v>
       </c>
@@ -6139,7 +7749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="56">
         <v>182</v>
       </c>
@@ -6171,7 +7781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="56">
         <v>183</v>
       </c>
@@ -6203,7 +7813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="56">
         <v>187</v>
       </c>
@@ -6235,7 +7845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="56">
         <v>195</v>
       </c>
@@ -6267,7 +7877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="56">
         <v>198</v>
       </c>
@@ -6299,7 +7909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="56">
         <v>201</v>
       </c>
@@ -6331,7 +7941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="56">
         <v>202</v>
       </c>
@@ -6363,7 +7973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="56">
         <v>203</v>
       </c>
@@ -6395,7 +8005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="56">
         <v>204</v>
       </c>
@@ -6427,7 +8037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="56">
         <v>210</v>
       </c>
@@ -6459,7 +8069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="56">
         <v>214</v>
       </c>
@@ -6491,7 +8101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="56">
         <v>215</v>
       </c>
@@ -6523,7 +8133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="56">
         <v>216</v>
       </c>
@@ -6555,7 +8165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="53">
         <v>221</v>
       </c>
@@ -6587,7 +8197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="53">
         <v>224</v>
       </c>
@@ -6619,7 +8229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="53">
         <v>225</v>
       </c>
@@ -6651,7 +8261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="53">
         <v>226</v>
       </c>
@@ -6683,7 +8293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="53">
         <v>232</v>
       </c>
@@ -6715,7 +8325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="53">
         <v>233</v>
       </c>
@@ -6747,7 +8357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="53">
         <v>239</v>
       </c>
@@ -6779,7 +8389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="53">
         <v>243</v>
       </c>
@@ -6811,7 +8421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="53">
         <v>244</v>
       </c>
@@ -6843,7 +8453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="53">
         <v>245</v>
       </c>
@@ -6875,7 +8485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="53">
         <v>249</v>
       </c>
@@ -6907,7 +8517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="53">
         <v>250</v>
       </c>
@@ -6939,7 +8549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="53">
         <v>251</v>
       </c>
@@ -6971,7 +8581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="53">
         <v>257</v>
       </c>
@@ -7003,7 +8613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="53">
         <v>258</v>
       </c>
@@ -7035,7 +8645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="53">
         <v>262</v>
       </c>
@@ -7067,7 +8677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="53">
         <v>263</v>
       </c>
@@ -7099,7 +8709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="53">
         <v>264</v>
       </c>
@@ -7131,7 +8741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="53">
         <v>265</v>
       </c>
@@ -7163,7 +8773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="53">
         <v>271</v>
       </c>
@@ -7195,7 +8805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="53">
         <v>272</v>
       </c>
@@ -7227,7 +8837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="53">
         <v>273</v>
       </c>
@@ -7259,7 +8869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="53">
         <v>278</v>
       </c>
@@ -7291,7 +8901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="53">
         <v>281</v>
       </c>
@@ -7323,7 +8933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="53">
         <v>282</v>
       </c>
@@ -7355,7 +8965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="53">
         <v>283</v>
       </c>
@@ -7387,7 +8997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="53">
         <v>292</v>
       </c>
@@ -7419,7 +9029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="53">
         <v>293</v>
       </c>
@@ -7451,7 +9061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="53">
         <v>296</v>
       </c>
@@ -7483,7 +9093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="53">
         <v>297</v>
       </c>
@@ -7515,7 +9125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="52">
         <v>302</v>
       </c>
@@ -7547,7 +9157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="52">
         <v>308</v>
       </c>
@@ -7579,7 +9189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="52">
         <v>313</v>
       </c>
@@ -7611,7 +9221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="52">
         <v>314</v>
       </c>
@@ -7643,7 +9253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="52">
         <v>316</v>
       </c>
@@ -7675,7 +9285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="52">
         <v>317</v>
       </c>
@@ -7707,7 +9317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="52">
         <v>318</v>
       </c>
@@ -7739,7 +9349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="52">
         <v>325</v>
       </c>
@@ -7771,7 +9381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="52">
         <v>328</v>
       </c>
@@ -7803,7 +9413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="52">
         <v>332</v>
       </c>
@@ -7835,7 +9445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="52">
         <v>333</v>
       </c>
@@ -7867,7 +9477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="52">
         <v>337</v>
       </c>
@@ -7899,7 +9509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="52">
         <v>338</v>
       </c>
@@ -7931,7 +9541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="52">
         <v>339</v>
       </c>
@@ -7963,7 +9573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="52">
         <v>346</v>
       </c>
@@ -7995,7 +9605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" s="52">
         <v>347</v>
       </c>
@@ -8027,7 +9637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="57">
         <v>354</v>
       </c>
@@ -8059,7 +9669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="57">
         <v>357</v>
       </c>
@@ -8091,7 +9701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="57">
         <v>360</v>
       </c>
@@ -8123,7 +9733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="57">
         <v>367</v>
       </c>
@@ -8155,7 +9765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="57">
         <v>374</v>
       </c>
@@ -8187,7 +9797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" s="57">
         <v>377</v>
       </c>
@@ -8219,7 +9829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="57">
         <v>380</v>
       </c>
@@ -8251,7 +9861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="59">
         <v>383</v>
       </c>
@@ -8283,7 +9893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="59">
         <v>387</v>
       </c>
@@ -8315,7 +9925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B116" s="59">
         <v>389</v>
       </c>
@@ -8347,7 +9957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="59">
         <v>395</v>
       </c>
@@ -8379,7 +9989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="59">
         <v>398</v>
       </c>
@@ -8411,7 +10021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="59">
         <v>400</v>
       </c>
@@ -8443,7 +10053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="59">
         <v>403</v>
       </c>
@@ -8475,7 +10085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" s="59">
         <v>407</v>
       </c>
@@ -8507,7 +10117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B122" s="59">
         <v>410</v>
       </c>
@@ -8539,7 +10149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" s="59">
         <v>411</v>
       </c>
@@ -8571,7 +10181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" s="58">
         <v>417</v>
       </c>
@@ -8603,7 +10213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B125" s="58">
         <v>422</v>
       </c>
@@ -8635,7 +10245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126" s="58">
         <v>423</v>
       </c>
@@ -8667,7 +10277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" s="58">
         <v>425</v>
       </c>
@@ -8699,7 +10309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" s="58">
         <v>426</v>
       </c>
@@ -8731,7 +10341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B129" s="58">
         <v>431</v>
       </c>
@@ -8763,7 +10373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="58">
         <v>436</v>
       </c>
@@ -8795,7 +10405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="58">
         <v>443</v>
       </c>
@@ -8827,7 +10437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="58">
         <v>446</v>
       </c>
@@ -8859,7 +10469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="58">
         <v>450</v>
       </c>
@@ -8891,7 +10501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="58">
         <v>455</v>
       </c>
@@ -8923,7 +10533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" s="58">
         <v>456</v>
       </c>
@@ -8955,7 +10565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" s="55">
         <v>459</v>
       </c>
@@ -8987,7 +10597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B137" s="55">
         <v>461</v>
       </c>
@@ -9019,492 +10629,689 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
-      <c r="I139" s="16">
-        <f>SUM(I2:I138)</f>
-        <v>1635500</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="59">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B138" s="55">
+        <v>422</v>
+      </c>
+      <c r="C138" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H138" s="64">
+        <v>0</v>
+      </c>
+      <c r="I138" s="64">
+        <v>2500</v>
+      </c>
+      <c r="J138" s="55">
+        <v>3536.2372</v>
+      </c>
+      <c r="K138" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B139" s="55">
+        <v>423</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="E139" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F139" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H139" s="64">
+        <v>0</v>
+      </c>
+      <c r="I139" s="64">
+        <v>5000</v>
+      </c>
+      <c r="J139" s="55">
+        <v>8536.2371999999996</v>
+      </c>
+      <c r="K139" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="55">
+        <v>425</v>
+      </c>
+      <c r="C140" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E140" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="F140" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="H140" s="64">
+        <v>0</v>
+      </c>
+      <c r="I140" s="64">
+        <v>2000</v>
+      </c>
+      <c r="J140" s="55">
+        <v>2908.9229</v>
+      </c>
+      <c r="K140" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="55">
+        <v>426</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E141" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="F141" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="H141" s="64">
+        <v>0</v>
+      </c>
+      <c r="I141" s="64">
+        <v>2500</v>
+      </c>
+      <c r="J141" s="55">
+        <v>5408.9228999999996</v>
+      </c>
+      <c r="K141" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="55">
+        <v>431</v>
+      </c>
+      <c r="C142" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="H142" s="64">
+        <v>0</v>
+      </c>
+      <c r="I142" s="64">
+        <v>6000</v>
+      </c>
+      <c r="J142" s="55">
+        <v>66.792900000000003</v>
+      </c>
+      <c r="K142" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="55">
+        <v>436</v>
+      </c>
+      <c r="C143" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="E143" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="F143" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="H143" s="64">
+        <v>0</v>
+      </c>
+      <c r="I143" s="64">
+        <v>2500</v>
+      </c>
+      <c r="J143" s="55">
+        <v>406.37290000000002</v>
+      </c>
+      <c r="K143" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I145" s="16">
+        <f>SUM(I2:I144)</f>
+        <v>1656000</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="59">
         <v>90</v>
       </c>
-      <c r="C142" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="59" t="s">
+      <c r="C148" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="E142" s="59" t="s">
+      <c r="E148" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F142" s="59" t="s">
+      <c r="F148" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G142" s="59" t="s">
+      <c r="G148" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="H142" s="69">
+      <c r="H148" s="69">
         <v>10000</v>
       </c>
-      <c r="I142" s="69">
-        <v>0</v>
-      </c>
-      <c r="J142" s="59">
+      <c r="I148" s="69">
+        <v>0</v>
+      </c>
+      <c r="J148" s="59">
         <v>33762.646000000001</v>
       </c>
-      <c r="K142" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="59">
+      <c r="K148" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="59">
         <v>169</v>
       </c>
-      <c r="C143" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="59" t="s">
+      <c r="C149" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="E143" s="59" t="s">
+      <c r="E149" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F143" s="59" t="s">
+      <c r="F149" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G143" s="59" t="s">
+      <c r="G149" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="H143" s="69">
+      <c r="H149" s="69">
         <v>117000</v>
       </c>
-      <c r="I143" s="69">
-        <v>0</v>
-      </c>
-      <c r="J143" s="59">
+      <c r="I149" s="69">
+        <v>0</v>
+      </c>
+      <c r="J149" s="59">
         <v>-115711.266</v>
       </c>
-      <c r="K143" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" s="59">
+      <c r="K149" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150" s="59">
         <v>179</v>
       </c>
-      <c r="C144" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="59" t="s">
+      <c r="C150" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="E144" s="59" t="s">
+      <c r="E150" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F144" s="59" t="s">
+      <c r="F150" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G144" s="59" t="s">
+      <c r="G150" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="H144" s="69">
+      <c r="H150" s="69">
         <v>140000</v>
       </c>
-      <c r="I144" s="69">
-        <v>0</v>
-      </c>
-      <c r="J144" s="59">
+      <c r="I150" s="69">
+        <v>0</v>
+      </c>
+      <c r="J150" s="59">
         <v>121320.024</v>
       </c>
-      <c r="K144" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="59">
+      <c r="K150" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151" s="59">
         <v>310</v>
       </c>
-      <c r="C145" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="59" t="s">
+      <c r="C151" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="E145" s="59" t="s">
+      <c r="E151" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F145" s="59" t="s">
+      <c r="F151" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G145" s="59" t="s">
+      <c r="G151" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="H145" s="69">
+      <c r="H151" s="69">
         <v>150000</v>
       </c>
-      <c r="I145" s="69">
-        <v>0</v>
-      </c>
-      <c r="J145" s="59">
+      <c r="I151" s="69">
+        <v>0</v>
+      </c>
+      <c r="J151" s="59">
         <v>1568.7043000000001</v>
       </c>
-      <c r="K145" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="59">
+      <c r="K151" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="59">
         <v>416</v>
       </c>
-      <c r="C146" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="59" t="s">
+      <c r="C152" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="E146" s="59" t="s">
+      <c r="E152" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F146" s="59" t="s">
+      <c r="F152" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G146" s="59" t="s">
+      <c r="G152" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="H146" s="69">
+      <c r="H152" s="69">
         <v>7500</v>
       </c>
-      <c r="I146" s="69">
-        <v>0</v>
-      </c>
-      <c r="J146" s="59">
+      <c r="I152" s="69">
+        <v>0</v>
+      </c>
+      <c r="J152" s="59">
         <v>12641.0854</v>
       </c>
-      <c r="K146" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="H148" s="16">
-        <f>SUM(H142:H147)</f>
+      <c r="K152" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H154" s="16">
+        <f>SUM(H148:H153)</f>
         <v>424500</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
-      <c r="H150" s="15" t="s">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H156" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="I150" s="71">
-        <f>H148-I139</f>
-        <v>-1211000</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" ht="15" thickBot="1"/>
-    <row r="154" spans="2:11" ht="15" thickBot="1">
-      <c r="G154" s="73"/>
-      <c r="H154" s="84" t="s">
+      <c r="I156" s="71">
+        <f>H154-I145</f>
+        <v>-1231500</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160" s="73"/>
+      <c r="H160" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="I154" s="85" t="s">
+      <c r="I160" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="J154" s="86" t="s">
+      <c r="J160" s="86" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="2:11">
-      <c r="G155" s="81" t="s">
+    <row r="161" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G161" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="H155" s="74">
+      <c r="H161" s="74">
         <f>SUM(I2)</f>
         <v>20000</v>
       </c>
-      <c r="I155" s="78"/>
-      <c r="J155" s="75">
-        <f>I155-H155</f>
+      <c r="I161" s="78"/>
+      <c r="J161" s="75">
+        <f>I161-H161</f>
         <v>-20000</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
-      <c r="G156" s="82" t="s">
+    <row r="162" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G162" s="82" t="s">
         <v>372</v>
       </c>
-      <c r="H156" s="76">
+      <c r="H162" s="76">
         <f>SUM(I3:I6)</f>
         <v>44000</v>
       </c>
-      <c r="I156" s="79"/>
-      <c r="J156" s="77">
-        <f t="shared" ref="J156:J165" si="0">I156-H156</f>
+      <c r="I162" s="79"/>
+      <c r="J162" s="77">
+        <f t="shared" ref="J162:J171" si="0">I162-H162</f>
         <v>-44000</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
-      <c r="G157" s="82" t="s">
+    <row r="163" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G163" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H157" s="76">
+      <c r="H163" s="76">
         <f>SUM(I7:I11)</f>
         <v>61000</v>
-      </c>
-      <c r="I157" s="79"/>
-      <c r="J157" s="77">
-        <f t="shared" si="0"/>
-        <v>-61000</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="G158" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="H158" s="76">
-        <f>SUM(I12:I24)</f>
-        <v>310000</v>
-      </c>
-      <c r="I158" s="79">
-        <f>H142</f>
-        <v>10000</v>
-      </c>
-      <c r="J158" s="77">
-        <f t="shared" si="0"/>
-        <v>-300000</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="G159" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="H159" s="76">
-        <f>SUM(I25:I45)</f>
-        <v>252000</v>
-      </c>
-      <c r="I159" s="79">
-        <f>H143</f>
-        <v>117000</v>
-      </c>
-      <c r="J159" s="77">
-        <f t="shared" si="0"/>
-        <v>-135000</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="G160" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="H160" s="76">
-        <f>SUM(I46:I60)</f>
-        <v>241000</v>
-      </c>
-      <c r="I160" s="79">
-        <f>H144</f>
-        <v>140000</v>
-      </c>
-      <c r="J160" s="77">
-        <f t="shared" si="0"/>
-        <v>-101000</v>
-      </c>
-    </row>
-    <row r="161" spans="5:10">
-      <c r="G161" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="H161" s="76">
-        <f>SUM(I61:I90)</f>
-        <v>284000</v>
-      </c>
-      <c r="I161" s="79"/>
-      <c r="J161" s="77">
-        <f t="shared" si="0"/>
-        <v>-284000</v>
-      </c>
-    </row>
-    <row r="162" spans="5:10">
-      <c r="G162" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="H162" s="76">
-        <f>SUM(I91:I106)</f>
-        <v>230000</v>
-      </c>
-      <c r="I162" s="79">
-        <f>H145</f>
-        <v>150000</v>
-      </c>
-      <c r="J162" s="77">
-        <f t="shared" si="0"/>
-        <v>-80000</v>
-      </c>
-    </row>
-    <row r="163" spans="5:10">
-      <c r="G163" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="H163" s="76">
-        <f>SUM(I107:I113)</f>
-        <v>60000</v>
       </c>
       <c r="I163" s="79"/>
       <c r="J163" s="77">
         <f t="shared" si="0"/>
+        <v>-61000</v>
+      </c>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G164" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="H164" s="76">
+        <f>SUM(I12:I24)</f>
+        <v>310000</v>
+      </c>
+      <c r="I164" s="79">
+        <f>H148</f>
+        <v>10000</v>
+      </c>
+      <c r="J164" s="77">
+        <f t="shared" si="0"/>
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G165" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="H165" s="76">
+        <f>SUM(I25:I45)</f>
+        <v>252000</v>
+      </c>
+      <c r="I165" s="79">
+        <f>H149</f>
+        <v>117000</v>
+      </c>
+      <c r="J165" s="77">
+        <f t="shared" si="0"/>
+        <v>-135000</v>
+      </c>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G166" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="H166" s="76">
+        <f>SUM(I46:I60)</f>
+        <v>241000</v>
+      </c>
+      <c r="I166" s="79">
+        <f>H150</f>
+        <v>140000</v>
+      </c>
+      <c r="J166" s="77">
+        <f t="shared" si="0"/>
+        <v>-101000</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G167" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="H167" s="76">
+        <f>SUM(I61:I90)</f>
+        <v>284000</v>
+      </c>
+      <c r="I167" s="79"/>
+      <c r="J167" s="77">
+        <f t="shared" si="0"/>
+        <v>-284000</v>
+      </c>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G168" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="H168" s="76">
+        <f>SUM(I91:I106)</f>
+        <v>230000</v>
+      </c>
+      <c r="I168" s="79">
+        <f>H151</f>
+        <v>150000</v>
+      </c>
+      <c r="J168" s="77">
+        <f t="shared" si="0"/>
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G169" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="H169" s="76">
+        <f>SUM(I107:I113)</f>
+        <v>60000</v>
+      </c>
+      <c r="I169" s="79"/>
+      <c r="J169" s="77">
+        <f t="shared" si="0"/>
         <v>-60000</v>
       </c>
     </row>
-    <row r="164" spans="5:10">
-      <c r="G164" s="82" t="s">
+    <row r="170" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G170" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="H164" s="76">
+      <c r="H170" s="76">
         <f>SUM(I114:I123)</f>
         <v>57500</v>
       </c>
-      <c r="I164" s="79"/>
-      <c r="J164" s="77">
+      <c r="I170" s="79"/>
+      <c r="J170" s="77">
         <f t="shared" si="0"/>
         <v>-57500</v>
       </c>
     </row>
-    <row r="165" spans="5:10">
-      <c r="G165" s="82" t="s">
+    <row r="171" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G171" s="82" t="s">
         <v>381</v>
       </c>
-      <c r="H165" s="76">
+      <c r="H171" s="76">
         <f>SUM(I124:I135)</f>
         <v>69500</v>
       </c>
-      <c r="I165" s="79">
-        <f>H146</f>
+      <c r="I171" s="79">
+        <f>H152</f>
         <v>7500</v>
       </c>
-      <c r="J165" s="77">
+      <c r="J171" s="77">
         <f t="shared" si="0"/>
         <v>-62000</v>
       </c>
     </row>
-    <row r="166" spans="5:10">
-      <c r="G166" s="82" t="s">
+    <row r="172" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G172" s="82" t="s">
         <v>382</v>
       </c>
-      <c r="H166" s="76">
-        <f>SUM(I136:I137)</f>
-        <v>6500</v>
-      </c>
-      <c r="I166" s="79"/>
-      <c r="J166" s="77">
-        <f>I166-H166</f>
-        <v>-6500</v>
-      </c>
-    </row>
-    <row r="167" spans="5:10">
-      <c r="G167" s="82" t="s">
+      <c r="H172" s="76">
+        <f>SUM(I136:I143)</f>
+        <v>27000</v>
+      </c>
+      <c r="I172" s="79"/>
+      <c r="J172" s="77">
+        <f>I172-H172</f>
+        <v>-27000</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G173" s="82" t="s">
         <v>383</v>
       </c>
-      <c r="H167" s="76"/>
-      <c r="I167" s="79"/>
-      <c r="J167" s="77"/>
-    </row>
-    <row r="168" spans="5:10">
-      <c r="E168" s="92"/>
-      <c r="G168" s="82" t="s">
+      <c r="H173" s="76"/>
+      <c r="I173" s="79"/>
+      <c r="J173" s="77"/>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E174" s="92"/>
+      <c r="G174" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="H168" s="76"/>
-      <c r="I168" s="79"/>
-      <c r="J168" s="77"/>
-    </row>
-    <row r="169" spans="5:10">
-      <c r="G169" s="82" t="s">
+      <c r="H174" s="76"/>
+      <c r="I174" s="79"/>
+      <c r="J174" s="77"/>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G175" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="H169" s="76"/>
-      <c r="I169" s="79"/>
-      <c r="J169" s="77"/>
-    </row>
-    <row r="170" spans="5:10">
-      <c r="G170" s="82" t="s">
+      <c r="H175" s="76"/>
+      <c r="I175" s="79"/>
+      <c r="J175" s="77"/>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G176" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="H170" s="76"/>
-      <c r="I170" s="79"/>
-      <c r="J170" s="77"/>
-    </row>
-    <row r="171" spans="5:10" ht="15" thickBot="1">
-      <c r="G171" s="83" t="s">
+      <c r="H176" s="76"/>
+      <c r="I176" s="79"/>
+      <c r="J176" s="77"/>
+    </row>
+    <row r="177" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G177" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="H171" s="76"/>
-      <c r="I171" s="79"/>
-      <c r="J171" s="77"/>
-    </row>
-    <row r="172" spans="5:10" ht="15" thickBot="1">
-      <c r="G172" s="72"/>
-      <c r="H172" s="87">
-        <f>SUM(H155:H171)</f>
-        <v>1635500</v>
-      </c>
-      <c r="I172" s="88">
-        <f>SUM(I155:I171)</f>
+      <c r="H177" s="76"/>
+      <c r="I177" s="79"/>
+      <c r="J177" s="77"/>
+    </row>
+    <row r="178" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G178" s="72"/>
+      <c r="H178" s="87">
+        <f>SUM(H161:H177)</f>
+        <v>1656000</v>
+      </c>
+      <c r="I178" s="88">
+        <f>SUM(I161:I177)</f>
         <v>424500</v>
       </c>
-      <c r="J172" s="89">
-        <f>SUM(J155:J171)</f>
-        <v>-1211000</v>
-      </c>
-    </row>
-    <row r="174" spans="5:10" ht="15" thickBot="1"/>
-    <row r="175" spans="5:10" ht="15" thickBot="1">
-      <c r="I175" s="90" t="s">
+      <c r="J178" s="89">
+        <f>SUM(J161:J177)</f>
+        <v>-1231500</v>
+      </c>
+    </row>
+    <row r="180" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F180" s="92"/>
+      <c r="H180" s="92"/>
+    </row>
+    <row r="181" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F181" s="92"/>
+      <c r="I181" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="J175" s="91">
-        <f>SUM(J155:J159)</f>
+      <c r="J181" s="91">
+        <f>SUM(J161:J165)</f>
         <v>-560000</v>
       </c>
     </row>
-    <row r="176" spans="5:10" ht="15" thickBot="1">
-      <c r="I176" s="88" t="s">
+    <row r="182" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I182" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="J176" s="89">
-        <f>SUM(J160:J166)</f>
-        <v>-651000</v>
-      </c>
-    </row>
-    <row r="177" spans="10:10">
-      <c r="J177" s="80"/>
+      <c r="J182" s="89">
+        <f>SUM(J166:J172)</f>
+        <v>-671500</v>
+      </c>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J183" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H156:H166" formulaRange="1"/>
+    <ignoredError sqref="H162:H172" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K466"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:K481"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="E485" sqref="E485"/>
+    <sheetView showGridLines="0" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B424" sqref="B424:K438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="46" t="s">
         <v>387</v>
       </c>
@@ -9536,7 +11343,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="E2" s="47" t="s">
         <v>397</v>
       </c>
@@ -9547,7 +11354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47">
         <v>1</v>
       </c>
@@ -9579,7 +11386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="47">
         <v>2</v>
       </c>
@@ -9611,7 +11418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="47">
         <v>3</v>
       </c>
@@ -9643,7 +11450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47">
         <v>4</v>
       </c>
@@ -9675,7 +11482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="47">
         <v>5</v>
       </c>
@@ -9707,7 +11514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <v>6</v>
       </c>
@@ -9739,7 +11546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <v>7</v>
       </c>
@@ -9771,7 +11578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47">
         <v>8</v>
       </c>
@@ -9803,7 +11610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47">
         <v>9</v>
       </c>
@@ -9835,7 +11642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47">
         <v>10</v>
       </c>
@@ -9867,7 +11674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47">
         <v>11</v>
       </c>
@@ -9899,7 +11706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="47">
         <v>12</v>
       </c>
@@ -9931,7 +11738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47">
         <v>13</v>
       </c>
@@ -9963,7 +11770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="47">
         <v>14</v>
       </c>
@@ -9995,7 +11802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="47">
         <v>15</v>
       </c>
@@ -10027,7 +11834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
         <v>16</v>
       </c>
@@ -10059,7 +11866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="47">
         <v>17</v>
       </c>
@@ -10091,7 +11898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47">
         <v>18</v>
       </c>
@@ -10123,7 +11930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47">
         <v>19</v>
       </c>
@@ -10155,7 +11962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="47">
         <v>20</v>
       </c>
@@ -10187,7 +11994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47">
         <v>21</v>
       </c>
@@ -10219,7 +12026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>22</v>
       </c>
@@ -10251,7 +12058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="47">
         <v>23</v>
       </c>
@@ -10283,7 +12090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="47">
         <v>24</v>
       </c>
@@ -10315,7 +12122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47">
         <v>25</v>
       </c>
@@ -10347,7 +12154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47">
         <v>26</v>
       </c>
@@ -10379,7 +12186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47">
         <v>27</v>
       </c>
@@ -10411,7 +12218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="47">
         <v>28</v>
       </c>
@@ -10443,7 +12250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="47">
         <v>29</v>
       </c>
@@ -10475,7 +12282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47">
         <v>30</v>
       </c>
@@ -10507,7 +12314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="47">
         <v>31</v>
       </c>
@@ -10539,7 +12346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47">
         <v>32</v>
       </c>
@@ -10571,7 +12378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47">
         <v>33</v>
       </c>
@@ -10603,7 +12410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="47">
         <v>34</v>
       </c>
@@ -10635,7 +12442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47">
         <v>35</v>
       </c>
@@ -10667,7 +12474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="47">
         <v>36</v>
       </c>
@@ -10699,7 +12506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="47">
         <v>37</v>
       </c>
@@ -10731,7 +12538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="47">
         <v>38</v>
       </c>
@@ -10763,7 +12570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47">
         <v>39</v>
       </c>
@@ -10795,7 +12602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="47">
         <v>40</v>
       </c>
@@ -10827,7 +12634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="47">
         <v>41</v>
       </c>
@@ -10859,7 +12666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="47">
         <v>42</v>
       </c>
@@ -10891,7 +12698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="47">
         <v>43</v>
       </c>
@@ -10923,7 +12730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47">
         <v>44</v>
       </c>
@@ -10955,7 +12762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="47">
         <v>45</v>
       </c>
@@ -10987,7 +12794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47">
         <v>46</v>
       </c>
@@ -11019,7 +12826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="47">
         <v>47</v>
       </c>
@@ -11051,7 +12858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="47">
         <v>48</v>
       </c>
@@ -11083,7 +12890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="47">
         <v>49</v>
       </c>
@@ -11115,7 +12922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="47">
         <v>50</v>
       </c>
@@ -11147,7 +12954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="47">
         <v>51</v>
       </c>
@@ -11179,7 +12986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="47">
         <v>52</v>
       </c>
@@ -11211,7 +13018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="47">
         <v>53</v>
       </c>
@@ -11243,7 +13050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="47">
         <v>54</v>
       </c>
@@ -11275,7 +13082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="47">
         <v>55</v>
       </c>
@@ -11307,7 +13114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="47">
         <v>56</v>
       </c>
@@ -11339,7 +13146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="47">
         <v>57</v>
       </c>
@@ -11371,7 +13178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="47">
         <v>58</v>
       </c>
@@ -11403,7 +13210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="47">
         <v>59</v>
       </c>
@@ -11435,7 +13242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="47">
         <v>60</v>
       </c>
@@ -11467,7 +13274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="47">
         <v>61</v>
       </c>
@@ -11499,7 +13306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="47">
         <v>62</v>
       </c>
@@ -11531,7 +13338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="47">
         <v>63</v>
       </c>
@@ -11563,7 +13370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="47">
         <v>64</v>
       </c>
@@ -11595,7 +13402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="47">
         <v>65</v>
       </c>
@@ -11627,7 +13434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="47">
         <v>66</v>
       </c>
@@ -11659,7 +13466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="47">
         <v>67</v>
       </c>
@@ -11691,7 +13498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="47">
         <v>68</v>
       </c>
@@ -11723,7 +13530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="47">
         <v>69</v>
       </c>
@@ -11755,7 +13562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="47">
         <v>70</v>
       </c>
@@ -11787,7 +13594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="47">
         <v>71</v>
       </c>
@@ -11819,7 +13626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="47">
         <v>72</v>
       </c>
@@ -11851,7 +13658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="47">
         <v>73</v>
       </c>
@@ -11883,7 +13690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="47">
         <v>74</v>
       </c>
@@ -11915,7 +13722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="47">
         <v>75</v>
       </c>
@@ -11947,7 +13754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="47">
         <v>76</v>
       </c>
@@ -11979,7 +13786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="47">
         <v>77</v>
       </c>
@@ -12011,7 +13818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="47">
         <v>78</v>
       </c>
@@ -12043,7 +13850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="47">
         <v>79</v>
       </c>
@@ -12075,7 +13882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="47">
         <v>80</v>
       </c>
@@ -12107,7 +13914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="47">
         <v>81</v>
       </c>
@@ -12139,7 +13946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="47">
         <v>82</v>
       </c>
@@ -12171,7 +13978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="47">
         <v>83</v>
       </c>
@@ -12203,7 +14010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="47">
         <v>84</v>
       </c>
@@ -12235,7 +14042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="47">
         <v>85</v>
       </c>
@@ -12267,7 +14074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="47">
         <v>86</v>
       </c>
@@ -12299,7 +14106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="47">
         <v>87</v>
       </c>
@@ -12331,7 +14138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="47">
         <v>88</v>
       </c>
@@ -12363,7 +14170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="47">
         <v>89</v>
       </c>
@@ -12395,7 +14202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="47">
         <v>90</v>
       </c>
@@ -12427,7 +14234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="47">
         <v>91</v>
       </c>
@@ -12459,7 +14266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="47">
         <v>92</v>
       </c>
@@ -12491,7 +14298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="47">
         <v>93</v>
       </c>
@@ -12523,7 +14330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="47">
         <v>94</v>
       </c>
@@ -12555,7 +14362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="47">
         <v>95</v>
       </c>
@@ -12587,7 +14394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="47">
         <v>96</v>
       </c>
@@ -12619,7 +14426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="47">
         <v>97</v>
       </c>
@@ -12651,7 +14458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="47">
         <v>98</v>
       </c>
@@ -12683,7 +14490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="47">
         <v>99</v>
       </c>
@@ -12715,7 +14522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="47">
         <v>100</v>
       </c>
@@ -12747,7 +14554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="47">
         <v>101</v>
       </c>
@@ -12779,7 +14586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="47">
         <v>102</v>
       </c>
@@ -12811,7 +14618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="47">
         <v>103</v>
       </c>
@@ -12843,7 +14650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" s="47">
         <v>104</v>
       </c>
@@ -12875,7 +14682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="47">
         <v>105</v>
       </c>
@@ -12907,7 +14714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="47">
         <v>106</v>
       </c>
@@ -12939,7 +14746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="47">
         <v>107</v>
       </c>
@@ -12971,7 +14778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="47">
         <v>108</v>
       </c>
@@ -13003,7 +14810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="47">
         <v>109</v>
       </c>
@@ -13035,7 +14842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" s="47">
         <v>110</v>
       </c>
@@ -13067,7 +14874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="47">
         <v>111</v>
       </c>
@@ -13099,7 +14906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="47">
         <v>112</v>
       </c>
@@ -13131,7 +14938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="47">
         <v>113</v>
       </c>
@@ -13163,7 +14970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="47">
         <v>114</v>
       </c>
@@ -13195,7 +15002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="47">
         <v>115</v>
       </c>
@@ -13227,7 +15034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="47">
         <v>116</v>
       </c>
@@ -13259,7 +15066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="47">
         <v>117</v>
       </c>
@@ -13291,7 +15098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="47">
         <v>118</v>
       </c>
@@ -13323,7 +15130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="47">
         <v>119</v>
       </c>
@@ -13355,7 +15162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="47">
         <v>120</v>
       </c>
@@ -13387,7 +15194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" s="47">
         <v>121</v>
       </c>
@@ -13419,7 +15226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" s="47">
         <v>122</v>
       </c>
@@ -13451,7 +15258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="47">
         <v>123</v>
       </c>
@@ -13483,7 +15290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="47">
         <v>124</v>
       </c>
@@ -13515,7 +15322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" s="47">
         <v>125</v>
       </c>
@@ -13547,7 +15354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="47">
         <v>126</v>
       </c>
@@ -13579,7 +15386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="47">
         <v>127</v>
       </c>
@@ -13611,7 +15418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="47">
         <v>128</v>
       </c>
@@ -13643,7 +15450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="47">
         <v>129</v>
       </c>
@@ -13675,7 +15482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="47">
         <v>130</v>
       </c>
@@ -13707,7 +15514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="47">
         <v>131</v>
       </c>
@@ -13739,7 +15546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="47">
         <v>132</v>
       </c>
@@ -13771,7 +15578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" s="47">
         <v>133</v>
       </c>
@@ -13803,7 +15610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" s="47">
         <v>134</v>
       </c>
@@ -13835,7 +15642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="47">
         <v>135</v>
       </c>
@@ -13867,7 +15674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="47">
         <v>136</v>
       </c>
@@ -13899,7 +15706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="47">
         <v>137</v>
       </c>
@@ -13931,7 +15738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="47">
         <v>138</v>
       </c>
@@ -13963,7 +15770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B141" s="47">
         <v>139</v>
       </c>
@@ -13995,7 +15802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B142" s="47">
         <v>140</v>
       </c>
@@ -14027,7 +15834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="47">
         <v>141</v>
       </c>
@@ -14059,7 +15866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="47">
         <v>142</v>
       </c>
@@ -14091,7 +15898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="47">
         <v>143</v>
       </c>
@@ -14123,7 +15930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="47">
         <v>144</v>
       </c>
@@ -14155,7 +15962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" s="47">
         <v>145</v>
       </c>
@@ -14187,7 +15994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" s="47">
         <v>146</v>
       </c>
@@ -14219,7 +16026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="47">
         <v>147</v>
       </c>
@@ -14251,7 +16058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="47">
         <v>148</v>
       </c>
@@ -14283,7 +16090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="47">
         <v>149</v>
       </c>
@@ -14315,7 +16122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="47">
         <v>150</v>
       </c>
@@ -14347,7 +16154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="47">
         <v>151</v>
       </c>
@@ -14379,7 +16186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B154" s="47">
         <v>152</v>
       </c>
@@ -14411,7 +16218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="47">
         <v>153</v>
       </c>
@@ -14443,7 +16250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="47">
         <v>154</v>
       </c>
@@ -14475,7 +16282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" s="47">
         <v>155</v>
       </c>
@@ -14507,7 +16314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="47">
         <v>156</v>
       </c>
@@ -14539,7 +16346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B159" s="47">
         <v>157</v>
       </c>
@@ -14571,7 +16378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="47">
         <v>158</v>
       </c>
@@ -14603,7 +16410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="47">
         <v>159</v>
       </c>
@@ -14635,7 +16442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B162" s="47">
         <v>160</v>
       </c>
@@ -14667,7 +16474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="47">
         <v>161</v>
       </c>
@@ -14699,7 +16506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="47">
         <v>162</v>
       </c>
@@ -14731,7 +16538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="47">
         <v>163</v>
       </c>
@@ -14763,7 +16570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B166" s="47">
         <v>164</v>
       </c>
@@ -14795,7 +16602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B167" s="47">
         <v>165</v>
       </c>
@@ -14827,7 +16634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="47">
         <v>166</v>
       </c>
@@ -14859,7 +16666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="47">
         <v>167</v>
       </c>
@@ -14891,7 +16698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="47">
         <v>168</v>
       </c>
@@ -14923,7 +16730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="47">
         <v>169</v>
       </c>
@@ -14955,7 +16762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="47">
         <v>170</v>
       </c>
@@ -14987,7 +16794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="47">
         <v>171</v>
       </c>
@@ -15019,7 +16826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B174" s="47">
         <v>172</v>
       </c>
@@ -15051,7 +16858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B175" s="47">
         <v>173</v>
       </c>
@@ -15083,7 +16890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="47">
         <v>174</v>
       </c>
@@ -15115,7 +16922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="47">
         <v>175</v>
       </c>
@@ -15147,7 +16954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="47">
         <v>176</v>
       </c>
@@ -15179,7 +16986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="47">
         <v>177</v>
       </c>
@@ -15211,7 +17018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="2:11">
+    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="47">
         <v>178</v>
       </c>
@@ -15243,7 +17050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="2:11">
+    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="47">
         <v>179</v>
       </c>
@@ -15275,7 +17082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="2:11">
+    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="47">
         <v>180</v>
       </c>
@@ -15307,7 +17114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
+    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="47">
         <v>181</v>
       </c>
@@ -15339,7 +17146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B184" s="47">
         <v>182</v>
       </c>
@@ -15371,7 +17178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="2:11">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B185" s="47">
         <v>183</v>
       </c>
@@ -15403,7 +17210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="2:11">
+    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="47">
         <v>184</v>
       </c>
@@ -15435,7 +17242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="2:11">
+    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="47">
         <v>185</v>
       </c>
@@ -15467,7 +17274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
+    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="47">
         <v>186</v>
       </c>
@@ -15499,7 +17306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B189" s="47">
         <v>187</v>
       </c>
@@ -15531,7 +17338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
+    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="47">
         <v>188</v>
       </c>
@@ -15563,7 +17370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="2:11">
+    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="47">
         <v>189</v>
       </c>
@@ -15595,7 +17402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="2:11">
+    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="47">
         <v>190</v>
       </c>
@@ -15627,7 +17434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="2:11">
+    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="47">
         <v>191</v>
       </c>
@@ -15659,7 +17466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="2:11">
+    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="47">
         <v>192</v>
       </c>
@@ -15691,7 +17498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="2:11">
+    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="47">
         <v>193</v>
       </c>
@@ -15723,7 +17530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="2:11">
+    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="47">
         <v>194</v>
       </c>
@@ -15755,7 +17562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="2:11">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B197" s="47">
         <v>195</v>
       </c>
@@ -15787,7 +17594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="2:11">
+    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="47">
         <v>196</v>
       </c>
@@ -15819,7 +17626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="2:11">
+    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="47">
         <v>197</v>
       </c>
@@ -15851,7 +17658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="2:11">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B200" s="47">
         <v>198</v>
       </c>
@@ -15883,7 +17690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="2:11">
+    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="47">
         <v>199</v>
       </c>
@@ -15915,7 +17722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="2:11">
+    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="47">
         <v>200</v>
       </c>
@@ -15947,7 +17754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B203" s="47">
         <v>201</v>
       </c>
@@ -15979,7 +17786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="2:11">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B204" s="47">
         <v>202</v>
       </c>
@@ -16011,7 +17818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="2:11">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B205" s="47">
         <v>203</v>
       </c>
@@ -16043,7 +17850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="2:11">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B206" s="47">
         <v>204</v>
       </c>
@@ -16075,7 +17882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="2:11">
+    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="47">
         <v>205</v>
       </c>
@@ -16107,7 +17914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="2:11">
+    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="47">
         <v>206</v>
       </c>
@@ -16139,7 +17946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="2:11">
+    <row r="209" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="47">
         <v>207</v>
       </c>
@@ -16171,7 +17978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="2:11">
+    <row r="210" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="47">
         <v>208</v>
       </c>
@@ -16203,7 +18010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="2:11">
+    <row r="211" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="47">
         <v>209</v>
       </c>
@@ -16235,7 +18042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="2:11">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B212" s="47">
         <v>210</v>
       </c>
@@ -16267,7 +18074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="2:11">
+    <row r="213" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="47">
         <v>211</v>
       </c>
@@ -16299,7 +18106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:11">
+    <row r="214" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="47">
         <v>212</v>
       </c>
@@ -16331,7 +18138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="2:11">
+    <row r="215" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="47">
         <v>213</v>
       </c>
@@ -16363,7 +18170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="2:11">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B216" s="47">
         <v>214</v>
       </c>
@@ -16395,7 +18202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:11">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B217" s="47">
         <v>215</v>
       </c>
@@ -16427,7 +18234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="2:11">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B218" s="47">
         <v>216</v>
       </c>
@@ -16459,7 +18266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="2:11">
+    <row r="219" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="47">
         <v>217</v>
       </c>
@@ -16491,7 +18298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="2:11">
+    <row r="220" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="47">
         <v>218</v>
       </c>
@@ -16523,7 +18330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:11">
+    <row r="221" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="47">
         <v>219</v>
       </c>
@@ -16555,7 +18362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="2:11">
+    <row r="222" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="47">
         <v>220</v>
       </c>
@@ -16587,7 +18394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B223" s="47">
         <v>221</v>
       </c>
@@ -16619,7 +18426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="2:11">
+    <row r="224" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="47">
         <v>222</v>
       </c>
@@ -16651,7 +18458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="2:11">
+    <row r="225" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="47">
         <v>223</v>
       </c>
@@ -16683,7 +18490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="2:11">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B226" s="47">
         <v>224</v>
       </c>
@@ -16715,7 +18522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="2:11">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B227" s="47">
         <v>225</v>
       </c>
@@ -16747,7 +18554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B228" s="47">
         <v>226</v>
       </c>
@@ -16779,7 +18586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="2:11">
+    <row r="229" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="47">
         <v>227</v>
       </c>
@@ -16811,7 +18618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="2:11">
+    <row r="230" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="47">
         <v>228</v>
       </c>
@@ -16843,7 +18650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="2:11">
+    <row r="231" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="47">
         <v>229</v>
       </c>
@@ -16875,7 +18682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="2:11">
+    <row r="232" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="47">
         <v>230</v>
       </c>
@@ -16907,7 +18714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="2:11">
+    <row r="233" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="47">
         <v>231</v>
       </c>
@@ -16939,7 +18746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="2:11">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B234" s="47">
         <v>232</v>
       </c>
@@ -16971,7 +18778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="2:11">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B235" s="47">
         <v>233</v>
       </c>
@@ -17003,7 +18810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
+    <row r="236" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="47">
         <v>234</v>
       </c>
@@ -17035,7 +18842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="2:11">
+    <row r="237" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="47">
         <v>235</v>
       </c>
@@ -17067,7 +18874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="2:11">
+    <row r="238" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="47">
         <v>236</v>
       </c>
@@ -17099,7 +18906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="2:11">
+    <row r="239" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="47">
         <v>237</v>
       </c>
@@ -17131,7 +18938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="2:11">
+    <row r="240" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="47">
         <v>238</v>
       </c>
@@ -17163,7 +18970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="2:11">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B241" s="47">
         <v>239</v>
       </c>
@@ -17195,7 +19002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="2:11">
+    <row r="242" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="47">
         <v>240</v>
       </c>
@@ -17227,7 +19034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="2:11">
+    <row r="243" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="47">
         <v>241</v>
       </c>
@@ -17259,7 +19066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="2:11">
+    <row r="244" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="47">
         <v>242</v>
       </c>
@@ -17291,7 +19098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="2:11">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B245" s="47">
         <v>243</v>
       </c>
@@ -17323,7 +19130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="2:11">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B246" s="47">
         <v>244</v>
       </c>
@@ -17355,7 +19162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="2:11">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B247" s="47">
         <v>245</v>
       </c>
@@ -17387,7 +19194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="2:11">
+    <row r="248" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="47">
         <v>246</v>
       </c>
@@ -17419,7 +19226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="2:11">
+    <row r="249" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="47">
         <v>247</v>
       </c>
@@ -17451,7 +19258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="2:11">
+    <row r="250" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="47">
         <v>248</v>
       </c>
@@ -17483,7 +19290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="2:11">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B251" s="47">
         <v>249</v>
       </c>
@@ -17515,7 +19322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="2:11">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B252" s="47">
         <v>250</v>
       </c>
@@ -17547,7 +19354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="2:11">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B253" s="47">
         <v>251</v>
       </c>
@@ -17579,7 +19386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="2:11">
+    <row r="254" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="47">
         <v>252</v>
       </c>
@@ -17611,7 +19418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="2:11">
+    <row r="255" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="47">
         <v>253</v>
       </c>
@@ -17643,7 +19450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="2:11">
+    <row r="256" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="47">
         <v>254</v>
       </c>
@@ -17675,7 +19482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="2:11">
+    <row r="257" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="47">
         <v>255</v>
       </c>
@@ -17707,7 +19514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="2:11">
+    <row r="258" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="47">
         <v>256</v>
       </c>
@@ -17739,7 +19546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="2:11">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B259" s="47">
         <v>257</v>
       </c>
@@ -17771,7 +19578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="2:11">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B260" s="47">
         <v>258</v>
       </c>
@@ -17803,7 +19610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="2:11">
+    <row r="261" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="47">
         <v>259</v>
       </c>
@@ -17835,7 +19642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="2:11">
+    <row r="262" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="47">
         <v>260</v>
       </c>
@@ -17867,7 +19674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="2:11">
+    <row r="263" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="47">
         <v>261</v>
       </c>
@@ -17899,7 +19706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="2:11">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B264" s="47">
         <v>262</v>
       </c>
@@ -17931,7 +19738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="2:11">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B265" s="47">
         <v>263</v>
       </c>
@@ -17963,7 +19770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" spans="2:11">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266" s="47">
         <v>264</v>
       </c>
@@ -17995,7 +19802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="2:11">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B267" s="47">
         <v>265</v>
       </c>
@@ -18027,7 +19834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="2:11">
+    <row r="268" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="47">
         <v>266</v>
       </c>
@@ -18059,7 +19866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="2:11">
+    <row r="269" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="47">
         <v>267</v>
       </c>
@@ -18091,7 +19898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="2:11">
+    <row r="270" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="47">
         <v>268</v>
       </c>
@@ -18123,7 +19930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="2:11">
+    <row r="271" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="47">
         <v>269</v>
       </c>
@@ -18155,7 +19962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="2:11">
+    <row r="272" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="47">
         <v>270</v>
       </c>
@@ -18187,7 +19994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="2:11">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B273" s="47">
         <v>271</v>
       </c>
@@ -18219,7 +20026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="2:11">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" s="47">
         <v>272</v>
       </c>
@@ -18251,7 +20058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="2:11">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" s="47">
         <v>273</v>
       </c>
@@ -18283,7 +20090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="2:11">
+    <row r="276" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="47">
         <v>274</v>
       </c>
@@ -18315,7 +20122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="2:11">
+    <row r="277" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="47">
         <v>275</v>
       </c>
@@ -18347,7 +20154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="2:11">
+    <row r="278" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="47">
         <v>276</v>
       </c>
@@ -18379,7 +20186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="2:11">
+    <row r="279" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="47">
         <v>277</v>
       </c>
@@ -18411,7 +20218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="2:11">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" s="47">
         <v>278</v>
       </c>
@@ -18443,7 +20250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="2:11">
+    <row r="281" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="47">
         <v>279</v>
       </c>
@@ -18475,7 +20282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="2:11">
+    <row r="282" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="47">
         <v>280</v>
       </c>
@@ -18507,7 +20314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="2:11">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" s="47">
         <v>281</v>
       </c>
@@ -18539,7 +20346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="2:11">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B284" s="47">
         <v>282</v>
       </c>
@@ -18571,7 +20378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" spans="2:11">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B285" s="47">
         <v>283</v>
       </c>
@@ -18603,7 +20410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="2:11">
+    <row r="286" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" s="47">
         <v>284</v>
       </c>
@@ -18635,7 +20442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="287" spans="2:11">
+    <row r="287" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="47">
         <v>285</v>
       </c>
@@ -18667,7 +20474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="288" spans="2:11">
+    <row r="288" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" s="47">
         <v>286</v>
       </c>
@@ -18699,7 +20506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="2:11">
+    <row r="289" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="47">
         <v>287</v>
       </c>
@@ -18731,7 +20538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="2:11">
+    <row r="290" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="47">
         <v>288</v>
       </c>
@@ -18763,7 +20570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="291" spans="2:11">
+    <row r="291" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" s="47">
         <v>289</v>
       </c>
@@ -18795,7 +20602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="2:11">
+    <row r="292" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" s="47">
         <v>290</v>
       </c>
@@ -18827,7 +20634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="2:11">
+    <row r="293" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="47">
         <v>291</v>
       </c>
@@ -18859,7 +20666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="2:11">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B294" s="47">
         <v>292</v>
       </c>
@@ -18891,7 +20698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="2:11">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B295" s="47">
         <v>293</v>
       </c>
@@ -18923,7 +20730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="2:11">
+    <row r="296" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" s="47">
         <v>294</v>
       </c>
@@ -18955,7 +20762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="297" spans="2:11">
+    <row r="297" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="47">
         <v>295</v>
       </c>
@@ -18987,7 +20794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="2:11">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" s="47">
         <v>296</v>
       </c>
@@ -19019,7 +20826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299" spans="2:11">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B299" s="47">
         <v>297</v>
       </c>
@@ -19051,7 +20858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="2:11">
+    <row r="300" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" s="47">
         <v>298</v>
       </c>
@@ -19083,7 +20890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="2:11">
+    <row r="301" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" s="47">
         <v>299</v>
       </c>
@@ -19115,7 +20922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="2:11">
+    <row r="302" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" s="47">
         <v>300</v>
       </c>
@@ -19147,7 +20954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="2:11">
+    <row r="303" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" s="47">
         <v>301</v>
       </c>
@@ -19179,7 +20986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="2:11">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B304" s="47">
         <v>302</v>
       </c>
@@ -19211,7 +21018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="2:11">
+    <row r="305" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="47">
         <v>303</v>
       </c>
@@ -19243,7 +21050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="2:11">
+    <row r="306" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="47">
         <v>304</v>
       </c>
@@ -19275,7 +21082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="2:11">
+    <row r="307" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="47">
         <v>305</v>
       </c>
@@ -19307,7 +21114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="2:11">
+    <row r="308" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="47">
         <v>306</v>
       </c>
@@ -19339,7 +21146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="2:11">
+    <row r="309" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="47">
         <v>307</v>
       </c>
@@ -19371,7 +21178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="310" spans="2:11">
+    <row r="310" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B310" s="47">
         <v>308</v>
       </c>
@@ -19403,7 +21210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="2:11">
+    <row r="311" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="47">
         <v>309</v>
       </c>
@@ -19435,7 +21242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="312" spans="2:11">
+    <row r="312" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="47">
         <v>310</v>
       </c>
@@ -19467,7 +21274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="313" spans="2:11">
+    <row r="313" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="47">
         <v>311</v>
       </c>
@@ -19499,7 +21306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="2:11">
+    <row r="314" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" s="47">
         <v>312</v>
       </c>
@@ -19531,7 +21338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="2:11">
+    <row r="315" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B315" s="47">
         <v>313</v>
       </c>
@@ -19563,7 +21370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="2:11">
+    <row r="316" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B316" s="47">
         <v>314</v>
       </c>
@@ -19595,7 +21402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="2:11">
+    <row r="317" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="47">
         <v>315</v>
       </c>
@@ -19627,7 +21434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="318" spans="2:11">
+    <row r="318" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B318" s="47">
         <v>316</v>
       </c>
@@ -19659,7 +21466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="319" spans="2:11">
+    <row r="319" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B319" s="47">
         <v>317</v>
       </c>
@@ -19691,7 +21498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="320" spans="2:11">
+    <row r="320" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B320" s="47">
         <v>318</v>
       </c>
@@ -19723,7 +21530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="321" spans="2:11">
+    <row r="321" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" s="47">
         <v>319</v>
       </c>
@@ -19755,7 +21562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="2:11">
+    <row r="322" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="47">
         <v>320</v>
       </c>
@@ -19787,7 +21594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="2:11">
+    <row r="323" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="47">
         <v>321</v>
       </c>
@@ -19819,7 +21626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="324" spans="2:11">
+    <row r="324" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="47">
         <v>322</v>
       </c>
@@ -19851,7 +21658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="2:11">
+    <row r="325" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="47">
         <v>323</v>
       </c>
@@ -19883,7 +21690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" spans="2:11">
+    <row r="326" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="47">
         <v>324</v>
       </c>
@@ -19915,7 +21722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="2:11">
+    <row r="327" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B327" s="47">
         <v>325</v>
       </c>
@@ -19947,7 +21754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="328" spans="2:11">
+    <row r="328" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" s="47">
         <v>326</v>
       </c>
@@ -19979,7 +21786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="2:11">
+    <row r="329" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" s="47">
         <v>327</v>
       </c>
@@ -20011,7 +21818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="330" spans="2:11">
+    <row r="330" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B330" s="47">
         <v>328</v>
       </c>
@@ -20043,7 +21850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="331" spans="2:11">
+    <row r="331" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" s="47">
         <v>329</v>
       </c>
@@ -20075,7 +21882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="2:11">
+    <row r="332" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" s="47">
         <v>330</v>
       </c>
@@ -20107,7 +21914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="2:11">
+    <row r="333" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" s="47">
         <v>331</v>
       </c>
@@ -20139,7 +21946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="2:11">
+    <row r="334" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B334" s="47">
         <v>332</v>
       </c>
@@ -20171,7 +21978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="2:11">
+    <row r="335" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B335" s="47">
         <v>333</v>
       </c>
@@ -20203,7 +22010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="2:11">
+    <row r="336" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" s="47">
         <v>334</v>
       </c>
@@ -20235,7 +22042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="2:11">
+    <row r="337" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" s="47">
         <v>335</v>
       </c>
@@ -20267,7 +22074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="2:11">
+    <row r="338" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" s="47">
         <v>336</v>
       </c>
@@ -20299,7 +22106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="2:11">
+    <row r="339" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B339" s="47">
         <v>337</v>
       </c>
@@ -20331,7 +22138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="2:11">
+    <row r="340" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B340" s="47">
         <v>338</v>
       </c>
@@ -20363,7 +22170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="2:11">
+    <row r="341" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B341" s="47">
         <v>339</v>
       </c>
@@ -20395,7 +22202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="2:11">
+    <row r="342" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" s="47">
         <v>340</v>
       </c>
@@ -20427,7 +22234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="2:11">
+    <row r="343" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="47">
         <v>341</v>
       </c>
@@ -20459,7 +22266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="2:11">
+    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" s="47">
         <v>342</v>
       </c>
@@ -20491,7 +22298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="2:11">
+    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="47">
         <v>343</v>
       </c>
@@ -20523,7 +22330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="346" spans="2:11">
+    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="47">
         <v>344</v>
       </c>
@@ -20555,7 +22362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="2:11">
+    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" s="47">
         <v>345</v>
       </c>
@@ -20587,7 +22394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="348" spans="2:11">
+    <row r="348" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B348" s="47">
         <v>346</v>
       </c>
@@ -20619,7 +22426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="2:11">
+    <row r="349" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B349" s="47">
         <v>347</v>
       </c>
@@ -20651,7 +22458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="2:11">
+    <row r="350" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B350" s="47">
         <v>348</v>
       </c>
@@ -20683,7 +22490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="2:11">
+    <row r="351" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B351" s="47">
         <v>349</v>
       </c>
@@ -20715,7 +22522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="2:11">
+    <row r="352" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B352" s="47">
         <v>350</v>
       </c>
@@ -20747,7 +22554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="2:11">
+    <row r="353" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B353" s="47">
         <v>351</v>
       </c>
@@ -20779,7 +22586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="2:11">
+    <row r="354" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B354" s="47">
         <v>352</v>
       </c>
@@ -20811,7 +22618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="2:11">
+    <row r="355" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B355" s="47">
         <v>353</v>
       </c>
@@ -20843,7 +22650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="2:11">
+    <row r="356" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B356" s="47">
         <v>354</v>
       </c>
@@ -20875,7 +22682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="2:11">
+    <row r="357" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B357" s="47">
         <v>355</v>
       </c>
@@ -20907,7 +22714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="2:11">
+    <row r="358" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B358" s="47">
         <v>356</v>
       </c>
@@ -20939,7 +22746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="2:11">
+    <row r="359" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B359" s="47">
         <v>357</v>
       </c>
@@ -20971,7 +22778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="2:11">
+    <row r="360" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B360" s="47">
         <v>358</v>
       </c>
@@ -21003,7 +22810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="2:11">
+    <row r="361" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B361" s="47">
         <v>359</v>
       </c>
@@ -21035,7 +22842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="2:11">
+    <row r="362" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B362" s="47">
         <v>360</v>
       </c>
@@ -21067,7 +22874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="2:11">
+    <row r="363" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B363" s="47">
         <v>361</v>
       </c>
@@ -21099,7 +22906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="2:11">
+    <row r="364" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B364" s="47">
         <v>362</v>
       </c>
@@ -21131,7 +22938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="2:11">
+    <row r="365" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B365" s="47">
         <v>363</v>
       </c>
@@ -21163,7 +22970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="2:11">
+    <row r="366" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B366" s="47">
         <v>364</v>
       </c>
@@ -21195,7 +23002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="2:11">
+    <row r="367" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B367" s="47">
         <v>365</v>
       </c>
@@ -21227,7 +23034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="2:11">
+    <row r="368" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B368" s="47">
         <v>366</v>
       </c>
@@ -21259,7 +23066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="2:11">
+    <row r="369" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B369" s="47">
         <v>367</v>
       </c>
@@ -21291,7 +23098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="2:11">
+    <row r="370" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B370" s="47">
         <v>368</v>
       </c>
@@ -21323,7 +23130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="2:11">
+    <row r="371" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B371" s="47">
         <v>369</v>
       </c>
@@ -21355,7 +23162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="2:11">
+    <row r="372" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B372" s="47">
         <v>370</v>
       </c>
@@ -21387,7 +23194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="2:11">
+    <row r="373" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B373" s="47">
         <v>371</v>
       </c>
@@ -21419,7 +23226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="2:11">
+    <row r="374" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B374" s="47">
         <v>372</v>
       </c>
@@ -21451,7 +23258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="2:11">
+    <row r="375" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B375" s="47">
         <v>373</v>
       </c>
@@ -21483,7 +23290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="2:11">
+    <row r="376" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B376" s="47">
         <v>374</v>
       </c>
@@ -21515,7 +23322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="2:11">
+    <row r="377" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B377" s="47">
         <v>375</v>
       </c>
@@ -21547,7 +23354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="2:11">
+    <row r="378" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B378" s="47">
         <v>376</v>
       </c>
@@ -21579,7 +23386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="2:11">
+    <row r="379" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B379" s="47">
         <v>377</v>
       </c>
@@ -21611,7 +23418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="2:11">
+    <row r="380" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B380" s="47">
         <v>378</v>
       </c>
@@ -21643,7 +23450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="2:11">
+    <row r="381" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B381" s="47">
         <v>379</v>
       </c>
@@ -21675,7 +23482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="2:11">
+    <row r="382" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B382" s="47">
         <v>380</v>
       </c>
@@ -21707,7 +23514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="2:11">
+    <row r="383" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B383" s="47">
         <v>381</v>
       </c>
@@ -21739,7 +23546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="2:11">
+    <row r="384" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B384" s="47">
         <v>382</v>
       </c>
@@ -21771,7 +23578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="2:11">
+    <row r="385" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B385" s="47">
         <v>383</v>
       </c>
@@ -21803,7 +23610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="2:11">
+    <row r="386" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B386" s="47">
         <v>384</v>
       </c>
@@ -21835,7 +23642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="2:11">
+    <row r="387" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B387" s="47">
         <v>385</v>
       </c>
@@ -21867,7 +23674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="2:11">
+    <row r="388" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B388" s="47">
         <v>386</v>
       </c>
@@ -21899,7 +23706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="389" spans="2:11">
+    <row r="389" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B389" s="47">
         <v>387</v>
       </c>
@@ -21931,7 +23738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="2:11">
+    <row r="390" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B390" s="47">
         <v>388</v>
       </c>
@@ -21963,7 +23770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="2:11">
+    <row r="391" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B391" s="47">
         <v>389</v>
       </c>
@@ -21995,7 +23802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="392" spans="2:11">
+    <row r="392" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B392" s="47">
         <v>390</v>
       </c>
@@ -22027,7 +23834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="2:11">
+    <row r="393" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B393" s="47">
         <v>391</v>
       </c>
@@ -22059,7 +23866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="2:11">
+    <row r="394" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="47">
         <v>392</v>
       </c>
@@ -22091,7 +23898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="2:11">
+    <row r="395" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="47">
         <v>393</v>
       </c>
@@ -22123,7 +23930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="2:11">
+    <row r="396" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" s="47">
         <v>394</v>
       </c>
@@ -22155,7 +23962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="2:11">
+    <row r="397" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B397" s="47">
         <v>395</v>
       </c>
@@ -22187,7 +23994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="2:11">
+    <row r="398" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B398" s="47">
         <v>396</v>
       </c>
@@ -22219,7 +24026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="2:11">
+    <row r="399" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B399" s="47">
         <v>397</v>
       </c>
@@ -22251,7 +24058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="2:11">
+    <row r="400" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B400" s="47">
         <v>398</v>
       </c>
@@ -22283,7 +24090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="2:11">
+    <row r="401" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B401" s="47">
         <v>399</v>
       </c>
@@ -22315,7 +24122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="2:11">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B402" s="47">
         <v>400</v>
       </c>
@@ -22347,7 +24154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="2:11">
+    <row r="403" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" s="47">
         <v>401</v>
       </c>
@@ -22379,7 +24186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="2:11">
+    <row r="404" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B404" s="47">
         <v>402</v>
       </c>
@@ -22411,7 +24218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="2:11">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B405" s="47">
         <v>403</v>
       </c>
@@ -22443,7 +24250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="2:11">
+    <row r="406" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B406" s="47">
         <v>404</v>
       </c>
@@ -22475,7 +24282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="2:11">
+    <row r="407" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B407" s="47">
         <v>405</v>
       </c>
@@ -22507,7 +24314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="2:11">
+    <row r="408" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B408" s="47">
         <v>406</v>
       </c>
@@ -22539,7 +24346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="2:11">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B409" s="47">
         <v>407</v>
       </c>
@@ -22571,7 +24378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="2:11">
+    <row r="410" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" s="47">
         <v>408</v>
       </c>
@@ -22603,7 +24410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="2:11">
+    <row r="411" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" s="47">
         <v>409</v>
       </c>
@@ -22635,7 +24442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="2:11">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B412" s="47">
         <v>410</v>
       </c>
@@ -22667,7 +24474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="2:11">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B413" s="47">
         <v>411</v>
       </c>
@@ -22699,7 +24506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="2:11">
+    <row r="414" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" s="47">
         <v>412</v>
       </c>
@@ -22731,7 +24538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="2:11">
+    <row r="415" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" s="47">
         <v>413</v>
       </c>
@@ -22763,7 +24570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="2:11">
+    <row r="416" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B416" s="47">
         <v>414</v>
       </c>
@@ -22795,7 +24602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="2:11">
+    <row r="417" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" s="47">
         <v>415</v>
       </c>
@@ -22827,7 +24634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="2:11">
+    <row r="418" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B418" s="47">
         <v>416</v>
       </c>
@@ -22859,7 +24666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="2:11">
+    <row r="419" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B419" s="47">
         <v>417</v>
       </c>
@@ -22891,7 +24698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="2:11">
+    <row r="420" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" s="47">
         <v>418</v>
       </c>
@@ -22923,7 +24730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="2:11">
+    <row r="421" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" s="47">
         <v>419</v>
       </c>
@@ -22955,7 +24762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="2:11">
+    <row r="422" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B422" s="47">
         <v>420</v>
       </c>
@@ -22987,7 +24794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="2:11">
+    <row r="423" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B423" s="47">
         <v>421</v>
       </c>
@@ -23019,7 +24826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="2:11">
+    <row r="424" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B424" s="47">
         <v>422</v>
       </c>
@@ -23051,7 +24858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="2:11">
+    <row r="425" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B425" s="47">
         <v>423</v>
       </c>
@@ -23083,7 +24890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="2:11">
+    <row r="426" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B426" s="47">
         <v>424</v>
       </c>
@@ -23115,7 +24922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="2:11">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B427" s="47">
         <v>425</v>
       </c>
@@ -23147,7 +24954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="2:11">
+    <row r="428" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B428" s="47">
         <v>426</v>
       </c>
@@ -23179,7 +24986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="2:11">
+    <row r="429" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" s="47">
         <v>427</v>
       </c>
@@ -23211,7 +25018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="2:11">
+    <row r="430" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" s="47">
         <v>428</v>
       </c>
@@ -23243,7 +25050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="2:11">
+    <row r="431" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" s="47">
         <v>429</v>
       </c>
@@ -23275,7 +25082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="2:11">
+    <row r="432" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" s="47">
         <v>430</v>
       </c>
@@ -23307,7 +25114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="2:11">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B433" s="47">
         <v>431</v>
       </c>
@@ -23339,7 +25146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="2:11">
+    <row r="434" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" s="47">
         <v>432</v>
       </c>
@@ -23371,7 +25178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="2:11">
+    <row r="435" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B435" s="47">
         <v>433</v>
       </c>
@@ -23403,7 +25210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="2:11">
+    <row r="436" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B436" s="47">
         <v>434</v>
       </c>
@@ -23435,7 +25242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="2:11">
+    <row r="437" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B437" s="47">
         <v>435</v>
       </c>
@@ -23467,7 +25274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="2:11">
+    <row r="438" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B438" s="47">
         <v>436</v>
       </c>
@@ -23499,7 +25306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="2:11">
+    <row r="439" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" s="47">
         <v>437</v>
       </c>
@@ -23531,7 +25338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="2:11">
+    <row r="440" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B440" s="47">
         <v>438</v>
       </c>
@@ -23563,7 +25370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="2:11">
+    <row r="441" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B441" s="47">
         <v>439</v>
       </c>
@@ -23595,7 +25402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="2:11">
+    <row r="442" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B442" s="47">
         <v>440</v>
       </c>
@@ -23627,7 +25434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="2:11">
+    <row r="443" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B443" s="47">
         <v>441</v>
       </c>
@@ -23659,7 +25466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="444" spans="2:11">
+    <row r="444" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B444" s="47">
         <v>442</v>
       </c>
@@ -23691,7 +25498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="445" spans="2:11">
+    <row r="445" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B445" s="47">
         <v>443</v>
       </c>
@@ -23723,7 +25530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="446" spans="2:11">
+    <row r="446" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" s="47">
         <v>444</v>
       </c>
@@ -23755,7 +25562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="2:11">
+    <row r="447" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B447" s="47">
         <v>445</v>
       </c>
@@ -23787,7 +25594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="2:11">
+    <row r="448" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" s="47">
         <v>446</v>
       </c>
@@ -23819,7 +25626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="2:11">
+    <row r="449" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" s="47">
         <v>447</v>
       </c>
@@ -23851,7 +25658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="2:11">
+    <row r="450" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" s="47">
         <v>448</v>
       </c>
@@ -23883,7 +25690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="2:11">
+    <row r="451" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" s="47">
         <v>449</v>
       </c>
@@ -23915,7 +25722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="2:11">
+    <row r="452" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" s="47">
         <v>450</v>
       </c>
@@ -23947,7 +25754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="2:11">
+    <row r="453" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" s="47">
         <v>451</v>
       </c>
@@ -23979,7 +25786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="2:11">
+    <row r="454" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" s="47">
         <v>452</v>
       </c>
@@ -24011,7 +25818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="2:11">
+    <row r="455" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" s="47">
         <v>453</v>
       </c>
@@ -24043,7 +25850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="2:11">
+    <row r="456" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" s="47">
         <v>454</v>
       </c>
@@ -24075,7 +25882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="2:11">
+    <row r="457" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B457" s="47">
         <v>455</v>
       </c>
@@ -24107,7 +25914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="2:11">
+    <row r="458" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B458" s="47">
         <v>456</v>
       </c>
@@ -24139,7 +25946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="2:11">
+    <row r="459" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" s="47">
         <v>457</v>
       </c>
@@ -24171,7 +25978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="2:11">
+    <row r="460" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B460" s="47">
         <v>458</v>
       </c>
@@ -24203,7 +26010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="461" spans="2:11">
+    <row r="461" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B461" s="47">
         <v>459</v>
       </c>
@@ -24235,7 +26042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="2:11">
+    <row r="462" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B462" s="47">
         <v>460</v>
       </c>
@@ -24267,7 +26074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="2:11">
+    <row r="463" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B463" s="47">
         <v>461</v>
       </c>
@@ -24299,7 +26106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="2:11">
+    <row r="464" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B464" s="47">
         <v>462</v>
       </c>
@@ -24331,7 +26138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="2:11">
+    <row r="465" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B465" s="47">
         <v>463</v>
       </c>
@@ -24363,19 +26170,1225 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="2:11">
+    <row r="466" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="47">
+        <v>8</v>
+      </c>
+      <c r="C466" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D466" s="47" t="s">
+        <v>959</v>
+      </c>
       <c r="E466" s="47" t="s">
+        <v>670</v>
+      </c>
+      <c r="F466" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G466" s="47" t="s">
+        <v>960</v>
+      </c>
+      <c r="H466" s="47">
+        <v>10.62</v>
+      </c>
+      <c r="I466" s="47">
+        <v>0</v>
+      </c>
+      <c r="J466" s="47">
+        <v>-140.2901</v>
+      </c>
+      <c r="K466" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="467" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="47">
+        <v>9</v>
+      </c>
+      <c r="C467" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D467" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="J466" s="47">
-        <v>-129.67099999999999</v>
-      </c>
-      <c r="K466" s="47" t="s">
-        <v>32</v>
-      </c>
-    </row>
+      <c r="E467" s="47" t="s">
+        <v>961</v>
+      </c>
+      <c r="F467" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G467" s="47" t="s">
+        <v>962</v>
+      </c>
+      <c r="H467" s="47">
+        <v>0</v>
+      </c>
+      <c r="I467" s="47">
+        <v>300</v>
+      </c>
+      <c r="J467" s="47">
+        <v>159.7099</v>
+      </c>
+      <c r="K467" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="468" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="47">
+        <v>10</v>
+      </c>
+      <c r="C468" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D468" s="47" t="s">
+        <v>959</v>
+      </c>
+      <c r="E468" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="F468" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G468" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="H468" s="47">
+        <v>0</v>
+      </c>
+      <c r="I468" s="47">
+        <v>3535.9962999999998</v>
+      </c>
+      <c r="J468" s="47">
+        <v>3695.7062000000001</v>
+      </c>
+      <c r="K468" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="469" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="47">
+        <v>11</v>
+      </c>
+      <c r="C469" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D469" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="E469" s="47" t="s">
+        <v>670</v>
+      </c>
+      <c r="F469" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G469" s="47" t="s">
+        <v>965</v>
+      </c>
+      <c r="H469" s="47">
+        <v>10.62</v>
+      </c>
+      <c r="I469" s="47">
+        <v>0</v>
+      </c>
+      <c r="J469" s="47">
+        <v>3685.0862000000002</v>
+      </c>
+      <c r="K469" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="470" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="47">
+        <v>12</v>
+      </c>
+      <c r="C470" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D470" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="E470" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="F470" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G470" s="47" t="s">
+        <v>967</v>
+      </c>
+      <c r="H470" s="47">
+        <v>0</v>
+      </c>
+      <c r="I470" s="47">
+        <v>4000</v>
+      </c>
+      <c r="J470" s="47">
+        <v>7685.0861999999997</v>
+      </c>
+      <c r="K470" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="471" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="47">
+        <v>13</v>
+      </c>
+      <c r="C471" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D471" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="E471" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="F471" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G471" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="H471" s="47">
+        <v>7597.2936</v>
+      </c>
+      <c r="I471" s="47">
+        <v>0</v>
+      </c>
+      <c r="J471" s="47">
+        <v>87.792599999999993</v>
+      </c>
+      <c r="K471" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="472" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="47">
+        <v>14</v>
+      </c>
+      <c r="C472" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D472" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="E472" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="F472" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G472" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="H472" s="47">
+        <v>0</v>
+      </c>
+      <c r="I472" s="47">
+        <v>1090.3957</v>
+      </c>
+      <c r="J472" s="47">
+        <v>1178.1882000000001</v>
+      </c>
+      <c r="K472" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="473" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="47"/>
+      <c r="C473" s="47"/>
+      <c r="D473" s="47"/>
+      <c r="E473" s="47"/>
+      <c r="F473" s="47"/>
+      <c r="G473" s="47"/>
+      <c r="H473" s="47"/>
+      <c r="I473" s="47"/>
+      <c r="J473" s="47"/>
+      <c r="K473" s="47"/>
+    </row>
+    <row r="474" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E474" s="47"/>
+      <c r="J474" s="47"/>
+      <c r="K474" s="47"/>
+    </row>
+    <row r="475" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="476" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="477" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="479" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="480" spans="2:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="B1:K472" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B1:K481">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Being amount received from DA5932-1429699662 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1429702916 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1430538851 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1435157304 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1435757887 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1437118361     through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1437364924     through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1437367099     through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1437372604     through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1437923901 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1441320245 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1441341021 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1441607085 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1443447458 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1444218063 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1444363511 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1444416759 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1447292080 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1447298344 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1450360010 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1451865692 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1451907006 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1451910135 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1452492624 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1452629729 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1452642701 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1454567234 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1454574903 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1455784315 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1455909085 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1455913479 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1456085023 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1456744093 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1456746440 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1456749937 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1457218974 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1457747185 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1457872419 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1457883949 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1460582893 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1460584471 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1461622997 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1461928305 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1466026662 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1470493367 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1471114997 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1471143616 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1471775706 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1471813365 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1471817603 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1472505493 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1476408526 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1478882218 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1478887933 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1479457155 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1479585376 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1479626138 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1480206455 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1480274738 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1490045278 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1491264908 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1492203159 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1495764614 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1500534174 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1502099550     through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1502927381 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1504101693 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1509728224 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1514860622 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1517994735 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1518839142 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1521308443 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1521702382 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1522442749 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1523870208 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1524165606 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1527765759 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1528494190 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1528689422 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1529245894 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1529433192 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1530261396 through NEST Payment Gateway"/>
+        <filter val="Being amount received from DA5932-1533627408 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1353046470 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1355194397 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1357100426 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1360944962 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1365251210 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1370796948 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1372514808 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1373947739 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1378498025 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1384147631 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1387802730 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1388039984 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1389782081 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1393521636 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1396041465 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1396143497 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1396265699 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1396646722 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1397425960 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1398380456 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1398388083 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1401398811 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1402158769 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1402161427 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1405456280 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1405461596 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1406915262 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1406916839 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1407075137 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1407146622 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1408424110 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1408436904 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1410203346 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1410436438 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1411948162 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1411983837 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1414890103 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1415528862 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1416134633 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1416638063 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1417167720 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1417322966 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1418669189 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1423235829 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-1423248490 through NEST Payment Gateway"/>
+        <filter val="Being amount received from TNDA5932-ANBUMARAN C-1210462369 through NEST Payment Gateway"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="105"/>
+    <col min="7" max="7" width="8.88671875" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>971</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="93"/>
+      <c r="C2">
+        <v>787</v>
+      </c>
+      <c r="D2">
+        <v>5434</v>
+      </c>
+      <c r="E2" s="105">
+        <v>8522.7999999999993</v>
+      </c>
+      <c r="F2">
+        <v>1613</v>
+      </c>
+      <c r="G2" s="107">
+        <v>14575</v>
+      </c>
+      <c r="H2">
+        <v>8810</v>
+      </c>
+      <c r="I2">
+        <v>10871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="93"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94" t="s">
+        <v>972</v>
+      </c>
+      <c r="C4" s="95">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="93" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>975</v>
+      </c>
+      <c r="E6" s="106">
+        <v>2626.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="93" t="s">
+        <v>976</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="D8" s="95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
+        <v>976</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>979</v>
+      </c>
+      <c r="F9" s="98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
+        <v>976</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>979</v>
+      </c>
+      <c r="F10" s="95">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
+        <v>976</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>980</v>
+      </c>
+      <c r="D11" s="98">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="93" t="s">
+        <v>981</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>982</v>
+      </c>
+      <c r="D12" s="95">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>983</v>
+      </c>
+      <c r="D13" s="98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="93" t="s">
+        <v>981</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>977</v>
+      </c>
+      <c r="H14" s="95">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>985</v>
+      </c>
+      <c r="G15" s="102">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="93" t="s">
+        <v>984</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>986</v>
+      </c>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="96" t="s">
+        <v>984</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>987</v>
+      </c>
+      <c r="G17" s="102">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="96" t="s">
+        <v>988</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>978</v>
+      </c>
+      <c r="D19" s="98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="93" t="s">
+        <v>988</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>989</v>
+      </c>
+      <c r="D20" s="95">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>982</v>
+      </c>
+      <c r="D21" s="98">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="93" t="s">
+        <v>991</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>992</v>
+      </c>
+      <c r="D22" s="95">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="H23" s="102"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="93" t="s">
+        <v>993</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>994</v>
+      </c>
+      <c r="D24" s="95">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="96" t="s">
+        <v>995</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>978</v>
+      </c>
+      <c r="D25" s="98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="93" t="s">
+        <v>995</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>996</v>
+      </c>
+      <c r="D26" s="95">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="96" t="s">
+        <v>997</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>998</v>
+      </c>
+      <c r="D27" s="98">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="93" t="s">
+        <v>999</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>982</v>
+      </c>
+      <c r="D28" s="95">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="96" t="s">
+        <v>999</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="H29" s="98"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="93" t="s">
+        <v>999</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>987</v>
+      </c>
+      <c r="G30" s="100">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="96" t="s">
+        <v>999</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>975</v>
+      </c>
+      <c r="E31" s="102">
+        <v>3064.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="103">
+        <v>43141</v>
+      </c>
+      <c r="B32" s="94" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="100">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="104">
+        <v>43141</v>
+      </c>
+      <c r="B33" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="H33" s="102">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="103">
+        <v>43141</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I34" s="100">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="104"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="102"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="103">
+        <v>43169</v>
+      </c>
+      <c r="B36" s="99" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I36" s="100">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="104">
+        <v>43169</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="H37" s="102">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="103">
+        <v>43169</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D38" s="95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="104">
+        <v>43200</v>
+      </c>
+      <c r="B39" s="97" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D39" s="98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="103">
+        <v>43200</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D40" s="95">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="104"/>
+      <c r="B41" s="97"/>
+      <c r="D41" s="102"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="103">
+        <v>43230</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D42" s="95">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="104">
+        <v>43261</v>
+      </c>
+      <c r="B43" s="97" t="s">
+        <v>972</v>
+      </c>
+      <c r="C43" s="98">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="103">
+        <v>43291</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H44" s="95">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="104">
+        <v>43291</v>
+      </c>
+      <c r="B45" s="97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D45" s="98">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="103">
+        <v>43291</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H46" s="100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="104">
+        <v>43291</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H47" s="102">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="103">
+        <v>43291</v>
+      </c>
+      <c r="B48" s="94" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G48" s="100">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="104">
+        <v>43291</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G49" s="98">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="103">
+        <v>43322</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="D50" s="95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="104">
+        <v>43322</v>
+      </c>
+      <c r="B51" s="97" t="s">
+        <v>980</v>
+      </c>
+      <c r="D51" s="98">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="103">
+        <v>43353</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F52" s="95">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="104">
+        <v>43353</v>
+      </c>
+      <c r="B53" s="97" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F53" s="98">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="103">
+        <v>43353</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D54" s="95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="104"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="98"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="103">
+        <v>43383</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="D56" s="95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="104">
+        <v>43383</v>
+      </c>
+      <c r="B57" s="97" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D57" s="98">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="103">
+        <v>43414</v>
+      </c>
+      <c r="B58" s="94" t="s">
+        <v>972</v>
+      </c>
+      <c r="C58" s="95">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="104">
+        <v>43444</v>
+      </c>
+      <c r="B59" s="97" t="s">
+        <v>998</v>
+      </c>
+      <c r="G59" s="98">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="103">
+        <v>43444</v>
+      </c>
+      <c r="B60" s="94" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D60" s="95">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="96" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>982</v>
+      </c>
+      <c r="D61" s="98">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="93" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E62" s="100">
+        <v>2832.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="96" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G63" s="102">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="93" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B64" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F64" s="95">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="96" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B65" s="97" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G65" s="102">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="93" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B66" s="94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D66" s="95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="96" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B67" s="96" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D67" s="98">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <f t="shared" ref="C70:I70" si="0">SUM(C5:C69)</f>
+        <v>787</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>5434</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>8522.7999999999993</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>1613</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>14575</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>8810</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>10871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="96" t="s">
+        <v>973</v>
+      </c>
+      <c r="B78" s="97" t="s">
+        <v>974</v>
+      </c>
+      <c r="C78" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="96" t="s">
+        <v>976</v>
+      </c>
+      <c r="B79" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="C79" s="98">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="93" t="s">
+        <v>988</v>
+      </c>
+      <c r="B80" s="94" t="s">
+        <v>986</v>
+      </c>
+      <c r="C80" s="95"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="104">
+        <v>43169</v>
+      </c>
+      <c r="B81" s="97" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C81" s="102">
+        <v>46012.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="104">
+        <v>43230</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="C82" s="102"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="104">
+        <v>43383</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="C83" s="98"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="javascript:myemilink('18/09/2018','2626.07','74585768262002991467647','VARUN ENTERPRISES SHEL   Chennai RegioIN')"/>
+    <hyperlink ref="B15" r:id="rId2" display="javascript:myemilink('22/09/2018','2637.00','74332748266826591027623','AYSHA HYPER MART         CHENNAI      IN')"/>
+    <hyperlink ref="B17" r:id="rId3" display="javascript:myemilink('22/09/2018','2550.00','74585198266012957473766','FRESH AND MORE           CHENNAI      IN')"/>
+    <hyperlink ref="B30" r:id="rId4" display="javascript:myemilink('30/09/2018','3000.00','74585198274013088322500','FRESH AND MORE           CHENNAI      IN')"/>
+    <hyperlink ref="B31" r:id="rId5" display="javascript:myemilink('30/09/2018','3064.65','74585768274003072878005','VARUN ENTERPRISES SHEL   Chennai RegioIN')"/>
+    <hyperlink ref="B36" r:id="rId6" display="javascript:myemilink('03/10/2018','6069.00','74332748277827633147749','MARUTI INSURANCE THE N   MUMBAI       IN')"/>
+    <hyperlink ref="B47" r:id="rId7" display="javascript:myemilink('07/10/2018','3570.00','74568228280580411302381','AMAZON.IN                             IN')"/>
+    <hyperlink ref="B62" r:id="rId8" display="javascript:myemilink('13/10/2018','2832.08','74505148286211780642914','VARUN ENTERPRISES SHEL   CHENNAI      IN')"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
+</worksheet>
 </file>
--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1027">
   <si>
     <t>Asset</t>
   </si>
@@ -4404,6 +4403,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4427,9 +4433,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5413,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5584,7 +5588,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="4">
-        <v>3656.2</v>
+        <v>32853.199999999997</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
@@ -5650,12 +5654,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
-        <v>25400</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="J7" s="23">
         <v>16</v>
       </c>
@@ -5688,10 +5687,13 @@
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25000</v>
+      </c>
       <c r="J8" s="23">
         <v>15</v>
       </c>
@@ -5790,12 +5792,12 @@
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>108071.8</v>
+        <v>82671.8</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
         <f>SUM(H2:H10)</f>
-        <v>36521.033333333326</v>
+        <v>90718.033333333326</v>
       </c>
       <c r="J11" s="23">
         <v>12</v>
@@ -5850,7 +5852,7 @@
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-102913.74</v>
+        <v>-77513.740000000005</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -26562,7 +26564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5418,7 +5418,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5475,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <v>5.66</v>
+        <v>111918.66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
@@ -5608,9 +5608,7 @@
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
-        <v>5000</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -5622,28 +5620,13 @@
         <v>17</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="J6" s="23">
-        <v>17</v>
-      </c>
-      <c r="K6" s="24">
-        <v>43405</v>
-      </c>
-      <c r="L6" s="17">
-        <v>207304</v>
-      </c>
-      <c r="M6" s="17">
-        <v>13380</v>
-      </c>
-      <c r="N6" s="17">
-        <v>11222</v>
-      </c>
-      <c r="O6" s="25">
-        <f t="shared" ref="O6:O22" si="0">M6-N6</f>
-        <v>2158</v>
-      </c>
-      <c r="P6" s="32">
-        <v>10589</v>
-      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="40">
         <v>2020</v>
       </c>
@@ -5671,7 +5654,7 @@
         <v>11339</v>
       </c>
       <c r="O7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O6:O22" si="0">M7-N7</f>
         <v>2041</v>
       </c>
       <c r="P7" s="32">
@@ -5786,7 +5769,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11">
         <f>SUM(C2:C10)</f>
-        <v>5158.0600000000004</v>
+        <v>112071.06</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5852,7 +5835,7 @@
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-77513.740000000005</v>
+        <v>29399.259999999995</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6140,19 +6123,19 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27">
         <f>SUM(M3:M22)</f>
-        <v>227242</v>
+        <v>213862</v>
       </c>
       <c r="N23" s="27">
         <f>SUM(N6:N22)</f>
-        <v>207304</v>
+        <v>196082</v>
       </c>
       <c r="O23" s="28">
         <f>SUM(O3:O22)</f>
-        <v>19938</v>
+        <v>17780</v>
       </c>
       <c r="P23" s="33">
         <f>SUM(P3:P8)</f>
-        <v>21178</v>
+        <v>10589</v>
       </c>
       <c r="Q23" s="43"/>
       <c r="R23" s="33">
@@ -6165,7 +6148,7 @@
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="M25" s="17">
         <f>M23+P23</f>
-        <v>248420</v>
+        <v>224451</v>
       </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
@@ -6212,7 +6195,7 @@
       <c r="G28" s="5"/>
       <c r="M28" s="19">
         <f>SUM(M25:M27)</f>
-        <v>868420</v>
+        <v>844451</v>
       </c>
       <c r="Q28" s="45">
         <v>43404</v>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="1027">
   <si>
     <t>Asset</t>
   </si>
@@ -5418,7 +5418,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5475,7 +5475,8 @@
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <v>111918.66</v>
+        <f>22626.86-13380</f>
+        <v>9246.86</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
@@ -5487,9 +5488,7 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4">
-        <v>10589</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="8"/>
       <c r="J2" s="20"/>
       <c r="K2" s="8"/>
@@ -5512,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>10.86</v>
+        <v>5004.96</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
@@ -5549,7 +5548,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4">
-        <v>8896</v>
+        <v>8895.8333333333303</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -5582,14 +5581,12 @@
         <v>15</v>
       </c>
       <c r="F5" s="44">
-        <v>49806.8</v>
+        <v>59024</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4">
-        <v>32853.199999999997</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="L5" s="17"/>
@@ -5619,7 +5616,9 @@
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="17"/>
@@ -5654,7 +5653,7 @@
         <v>11339</v>
       </c>
       <c r="O7" s="25">
-        <f t="shared" ref="O6:O22" si="0">M7-N7</f>
+        <f t="shared" ref="O7:O22" si="0">M7-N7</f>
         <v>2041</v>
       </c>
       <c r="P7" s="32">
@@ -5671,12 +5670,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4">
-        <v>25000</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="J8" s="23">
         <v>15</v>
       </c>
@@ -5769,18 +5763,18 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11">
         <f>SUM(C2:C10)</f>
-        <v>112071.06</v>
+        <v>14393.36</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>82671.8</v>
+        <v>91888.833333333328</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
         <f>SUM(H2:H10)</f>
-        <v>90718.033333333326</v>
+        <v>22275.833333333328</v>
       </c>
       <c r="J11" s="23">
         <v>12</v>
@@ -5835,7 +5829,7 @@
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>29399.259999999995</v>
+        <v>-77495.473333333328</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6061,7 +6055,7 @@
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J21" s="23">
         <v>2</v>
@@ -6089,7 +6083,7 @@
     <row r="22" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="14">
         <f>SUM(C14:C21)</f>
-        <v>1438000</v>
+        <v>1443000</v>
       </c>
       <c r="J22" s="23">
         <v>1</v>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5418,7 +5418,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5581,7 +5581,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="44">
-        <v>59024</v>
+        <v>69084</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -5769,7 +5769,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>91888.833333333328</v>
+        <v>101948.83333333333</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-77495.473333333328</v>
+        <v>-87555.473333333328</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="2" r:id="rId1"/>
-    <sheet name="Zerodha" sheetId="8" r:id="rId2"/>
-    <sheet name="LEDGER" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId2"/>
+    <sheet name="Zerodha" sheetId="8" r:id="rId3"/>
+    <sheet name="LEDGER" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LEDGER!$B$1:$K$481</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LEDGER!$B$1:$K$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1145">
   <si>
     <t>Asset</t>
   </si>
@@ -3112,6 +3114,360 @@
   </si>
   <si>
     <t>One time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>17/10/2018</t>
+  </si>
+  <si>
+    <t>NAMMA VEEDU VASANTA BH CHENNAI IN</t>
+  </si>
+  <si>
+    <t>19/10/2018</t>
+  </si>
+  <si>
+    <t>20/10/2018</t>
+  </si>
+  <si>
+    <t>MURUGAN STORES SUPERMA CHENNAI IN</t>
+  </si>
+  <si>
+    <t>21/10/2018</t>
+  </si>
+  <si>
+    <t>SARAVANA MEDICALS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>GRACE SUPER MARKET CHENNAI IN</t>
+  </si>
+  <si>
+    <t>BUHARI HOTELS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t>FAERY ESTATES PRIVATE CHENNAI IN</t>
+  </si>
+  <si>
+    <t>TRIOMEGA INDIA PVT LTD CHENNAI IN</t>
+  </si>
+  <si>
+    <t>23/10/2018</t>
+  </si>
+  <si>
+    <t>MERCY ELECTRONICS CHENNAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>24/10/2018</t>
+  </si>
+  <si>
+    <t>25/10/2018</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
+    <t>SAI PALETTE FOODS PVT CHENNAI IN</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>GRT VELACHERY CHENNAI IN</t>
+  </si>
+  <si>
+    <t>SREE GUPTA BHAVAN PRIV CHENNAI IN</t>
+  </si>
+  <si>
+    <t>29/10/2018</t>
+  </si>
+  <si>
+    <t>30/10/2018</t>
+  </si>
+  <si>
+    <t>www.freecharge.in IN</t>
+  </si>
+  <si>
+    <t>31/10/2018</t>
+  </si>
+  <si>
+    <t>FLIPKART PAYMENTS BANGALORE IN</t>
+  </si>
+  <si>
+    <t>EasyPayments Aluva IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>MURUGAN STORES SUPERMA CHENNAI IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>NIRMA FOODS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>RVS PHARMACY CHENNAI IN</t>
+  </si>
+  <si>
+    <t>ANJAPPAR CHETTINAD A/C CHENNAI IN</t>
+  </si>
+  <si>
+    <t>BIG BAZAR CHENNAI IN</t>
+  </si>
+  <si>
+    <t>MOBILE ZONE CHENNAI IN</t>
+  </si>
+  <si>
+    <t>RELIANCE DIGITAL IN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>MERCY ELECTRONICS CHENNAI IN</t>
+  </si>
+  <si>
+    <t>13/11/2018</t>
+  </si>
+  <si>
+    <t>SAGROUP CHENNAI IN</t>
+  </si>
+  <si>
+    <t>OVEN FRESH CHENNAI IN</t>
+  </si>
+  <si>
+    <t>14/11/2018</t>
+  </si>
+  <si>
+    <t>TNEB CHENNAI IN</t>
+  </si>
+  <si>
+    <t>BRIGHT HOME CHENNAI IN</t>
+  </si>
+  <si>
+    <t>16/11/2018</t>
+  </si>
+  <si>
+    <t>CREDIT TWDS ME EMI CONVERSION</t>
+  </si>
+  <si>
+    <t>17/11/2018</t>
+  </si>
+  <si>
+    <t>ME-EMI CONVERSION - 001/012</t>
+  </si>
+  <si>
+    <t>CGST @ 9%</t>
+  </si>
+  <si>
+    <t>SGST @ 9%</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>DINDIGUL THALAPPAKATTICHENNAIIN</t>
+  </si>
+  <si>
+    <t>Accelyst Solutions PvtMUMBAIIN</t>
+  </si>
+  <si>
+    <t>ACCELYST SOLUTIONS PVT LTIN</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>18/11/2018</t>
+  </si>
+  <si>
+    <t>FRESH AND MORECHENNAIIN</t>
+  </si>
+  <si>
+    <t>GRACE SUPER MARKETCHENNAIIN</t>
+  </si>
+  <si>
+    <t>MERCY ELECTRONICSCHENNAIIN</t>
+  </si>
+  <si>
+    <t>21/11/2018</t>
+  </si>
+  <si>
+    <t>AMAZON.ININ</t>
+  </si>
+  <si>
+    <t>FOODEXOCHENNAIIN</t>
+  </si>
+  <si>
+    <t>22/11/2018</t>
+  </si>
+  <si>
+    <t>AMAZON INTERNET SERVICNEW DELHIIN</t>
+  </si>
+  <si>
+    <t>20/11/2018</t>
+  </si>
+  <si>
+    <t>CURRYS N CRUNCHKANCHIPURAMIN</t>
+  </si>
+  <si>
+    <t>TNEBCHENNAIIN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>RECHARGEITNOW COMGURGAONIN</t>
+  </si>
+  <si>
+    <t>SANGEETHA VEGCHENNAIIN</t>
+  </si>
+  <si>
+    <t>www.freecharge.inIN</t>
+  </si>
+  <si>
+    <t>THALAPPAKATTI BRIYANICHENNAIIN</t>
+  </si>
+  <si>
+    <t>23/11/2018</t>
+  </si>
+  <si>
+    <t>BBB BROTHERSCHENNAIIN</t>
+  </si>
+  <si>
+    <t>24/11/2018</t>
+  </si>
+  <si>
+    <t>BRIGHT HOMECHENNAIIN</t>
+  </si>
+  <si>
+    <t>25/11/2018</t>
+  </si>
+  <si>
+    <t>ITUNES.COM/BILLITUNES.COMIE</t>
+  </si>
+  <si>
+    <t>NEW LIFE ASSEMBLY OF GCHENNAIIN</t>
+  </si>
+  <si>
+    <t>SANGEETHA VEG RESTAURACHENNAIIN</t>
+  </si>
+  <si>
+    <t>26/11/2018</t>
+  </si>
+  <si>
+    <t>VENKATESWARA FOODSCHENNAIIN</t>
+  </si>
+  <si>
+    <t>MADURAI PANDIAN HOTELCHENNAIIN</t>
+  </si>
+  <si>
+    <t>WOW MOMOCHENNAIIN</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
+  </si>
+  <si>
+    <t>28/11/2018</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>VARUN ENTERPRISES SHELChennai RegioIN (Do you want to convert this to an EMI)</t>
+  </si>
+  <si>
+    <t>Udemy+905326253880IE</t>
+  </si>
+  <si>
+    <t>30/11/2018</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +10K</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>FY08</t>
+  </si>
+  <si>
+    <t>FY09</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>FY10</t>
+  </si>
+  <si>
+    <t>FY11</t>
+  </si>
+  <si>
+    <t>FY12</t>
+  </si>
+  <si>
+    <t>FY13</t>
+  </si>
+  <si>
+    <t>FY14</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3181,8 +3537,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,6 +3645,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1FFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7CBE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3546,12 +3920,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3782,6 +4157,17 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="3"/>
+    <xf numFmtId="4" fontId="8" fillId="18" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3798,8 +4184,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5415,10 +5802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,7 +5829,7 @@
     <col min="19" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5454,36 +5841,69 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="110"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
       <c r="P1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="112"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R1" s="119"/>
+      <c r="T1" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <f>22626.86-13380</f>
-        <v>9246.86</v>
+        <f>15198.88-13380</f>
+        <v>1818.8799999999992</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10589</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
@@ -5505,13 +5925,49 @@
       <c r="P2" s="31"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T2" s="45" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>1126</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>1126</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>5004.96</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
@@ -5535,8 +5991,44 @@
       <c r="P3" s="32"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T3" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -5568,20 +6060,60 @@
         <v>2018</v>
       </c>
       <c r="R4" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
+        <v>1118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>871.73</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1119</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="44">
-        <v>69084</v>
+        <v>60025.120000000003</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -5600,12 +6132,47 @@
       <c r="R5" s="38">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T5" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>4000</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -5616,9 +6183,7 @@
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="17"/>
@@ -5632,41 +6197,87 @@
       <c r="R6" s="38">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T6" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="J7" s="23">
-        <v>16</v>
-      </c>
-      <c r="K7" s="24">
-        <v>43435</v>
-      </c>
-      <c r="L7" s="17">
-        <v>196083</v>
-      </c>
-      <c r="M7" s="17">
-        <v>13380</v>
-      </c>
-      <c r="N7" s="17">
-        <v>11339</v>
-      </c>
-      <c r="O7" s="25">
-        <f t="shared" ref="O7:O22" si="0">M7-N7</f>
-        <v>2041</v>
-      </c>
-      <c r="P7" s="32">
-        <v>10589</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="32"/>
       <c r="Q7" s="40">
         <v>2021</v>
       </c>
       <c r="R7" s="38">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T7" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8"/>
@@ -5687,7 +6298,7 @@
         <v>11457</v>
       </c>
       <c r="O8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O8:O22" si="0">M8-N8</f>
         <v>1923</v>
       </c>
       <c r="P8" s="31"/>
@@ -5697,8 +6308,32 @@
       <c r="R8" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U8" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="D9" s="3"/>
       <c r="H9" s="4"/>
@@ -5724,8 +6359,26 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -5755,21 +6408,36 @@
       </c>
       <c r="R10" s="38">
         <f>SUM(R4:R8)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="V10" s="45" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11">
         <f>SUM(C2:C10)</f>
-        <v>14393.36</v>
+        <v>6832.15</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>101948.83333333333</v>
+        <v>82300.953333333338</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
@@ -5798,8 +6466,17 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W11" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J12" s="23">
         <v>11</v>
       </c>
@@ -5822,17 +6499,31 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W12" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-87555.473333333328</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+        <v>-75468.803333333344</v>
+      </c>
+      <c r="G13" s="8">
+        <v>112000</v>
+      </c>
+      <c r="H13" s="8">
+        <f>G13-F11</f>
+        <v>29699.046666666662</v>
+      </c>
       <c r="J13" s="23">
         <v>10</v>
       </c>
@@ -5855,8 +6546,14 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W13" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -5886,7 +6583,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="38"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C15" s="13">
         <v>30000</v>
       </c>
@@ -5917,7 +6614,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="38"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C16" s="13">
         <v>50000</v>
       </c>
@@ -6081,9 +6778,8 @@
       <c r="R21" s="38"/>
     </row>
     <row r="22" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="14">
-        <f>SUM(C14:C21)</f>
-        <v>1443000</v>
+      <c r="C22" s="2">
+        <v>35000</v>
       </c>
       <c r="J22" s="23">
         <v>1</v>
@@ -6109,7 +6805,9 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="5"/>
+      <c r="C23" s="2">
+        <v>5000</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="J23" s="29"/>
@@ -6117,19 +6815,19 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27">
         <f>SUM(M3:M22)</f>
-        <v>213862</v>
+        <v>200482</v>
       </c>
       <c r="N23" s="27">
         <f>SUM(N6:N22)</f>
-        <v>196082</v>
+        <v>184743</v>
       </c>
       <c r="O23" s="28">
         <f>SUM(O3:O22)</f>
-        <v>17780</v>
+        <v>15739</v>
       </c>
       <c r="P23" s="33">
         <f>SUM(P3:P8)</f>
-        <v>10589</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="43"/>
       <c r="R23" s="33">
@@ -6137,12 +6835,16 @@
       </c>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="14">
+        <f>SUM(C14:C23)</f>
+        <v>1483000</v>
+      </c>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="M25" s="17">
         <f>M23+P23</f>
-        <v>224451</v>
+        <v>200482</v>
       </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
@@ -6189,7 +6891,7 @@
       <c r="G28" s="5"/>
       <c r="M28" s="19">
         <f>SUM(M25:M27)</f>
-        <v>844451</v>
+        <v>820482</v>
       </c>
       <c r="Q28" s="45">
         <v>43404</v>
@@ -6200,12 +6902,10 @@
       </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="O30" s="8"/>
@@ -6213,14 +6913,15 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6234,10 +6935,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="93" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F5" s="95">
+        <v>231</v>
+      </c>
+      <c r="G5" s="113"/>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="96" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F6" s="98">
+        <v>509</v>
+      </c>
+      <c r="G6" s="114"/>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="93" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F7" s="95">
+        <v>838</v>
+      </c>
+      <c r="G7" s="113"/>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>974</v>
+      </c>
+      <c r="F8" s="102">
+        <v>-1000</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="93" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F9" s="100">
+        <v>1256</v>
+      </c>
+      <c r="G9" s="113"/>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F10" s="102">
+        <v>2034.5</v>
+      </c>
+      <c r="G10" s="114"/>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F11" s="95">
+        <v>800</v>
+      </c>
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="96" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F12" s="98">
+        <v>-407</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F13" s="95">
+        <v>39</v>
+      </c>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F14" s="98">
+        <v>-2</v>
+      </c>
+      <c r="G14" s="114" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="93" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F15" s="95">
+        <v>2</v>
+      </c>
+      <c r="G15" s="113"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="96" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F16" s="98">
+        <v>35</v>
+      </c>
+      <c r="G16" s="114"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="93" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F17" s="95">
+        <v>102</v>
+      </c>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D18" s="96" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F18" s="102">
+        <v>5031.29</v>
+      </c>
+      <c r="G18" s="114"/>
+    </row>
+    <row r="19" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="93" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F19" s="100">
+        <v>8457.9</v>
+      </c>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="96" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F20" s="98">
+        <v>509</v>
+      </c>
+      <c r="G20" s="114"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="93" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F21" s="95">
+        <v>110</v>
+      </c>
+      <c r="G21" s="113"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="96" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F22" s="98">
+        <v>90</v>
+      </c>
+      <c r="G22" s="114"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="93" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F23" s="95">
+        <v>498</v>
+      </c>
+      <c r="G23" s="113"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F24" s="98">
+        <v>498</v>
+      </c>
+      <c r="G24" s="114"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="93" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F25" s="95">
+        <v>50</v>
+      </c>
+      <c r="G25" s="113"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F26" s="98">
+        <v>231</v>
+      </c>
+      <c r="G26" s="114"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="93" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F27" s="95">
+        <v>20</v>
+      </c>
+      <c r="G27" s="113"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="96" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F28" s="98">
+        <v>483</v>
+      </c>
+      <c r="G28" s="114"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="93" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F29" s="100">
+        <v>2464</v>
+      </c>
+      <c r="G29" s="113"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="96" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F30" s="102">
+        <v>2353</v>
+      </c>
+      <c r="G30" s="114"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="93" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F31" s="95">
+        <v>18</v>
+      </c>
+      <c r="G31" s="113"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="96" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F32" s="98">
+        <v>250</v>
+      </c>
+      <c r="G32" s="114"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="93" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F33" s="95">
+        <v>453</v>
+      </c>
+      <c r="G33" s="113"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="96" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E34" s="97" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F34" s="98">
+        <v>670</v>
+      </c>
+      <c r="G34" s="114"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="93" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F35" s="95">
+        <v>60</v>
+      </c>
+      <c r="G35" s="113"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="96" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F36" s="98">
+        <v>189</v>
+      </c>
+      <c r="G36" s="114"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="93" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F37" s="95">
+        <v>242</v>
+      </c>
+      <c r="G37" s="113"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="96" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F38" s="98">
+        <v>199</v>
+      </c>
+      <c r="G38" s="114"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="93" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E39" s="94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F39" s="95">
+        <v>144</v>
+      </c>
+      <c r="G39" s="113"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="96" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F40" s="98">
+        <v>128</v>
+      </c>
+      <c r="G40" s="114"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="93" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E41" s="94" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F41" s="95">
+        <v>31</v>
+      </c>
+      <c r="G41" s="113"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E42" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F42" s="98">
+        <v>150</v>
+      </c>
+      <c r="G42" s="114"/>
+    </row>
+    <row r="43" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D43" s="93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E43" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F43" s="100">
+        <v>2530.66</v>
+      </c>
+      <c r="G43" s="113"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F44" s="98">
+        <v>640</v>
+      </c>
+      <c r="G44" s="114"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E45" s="94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F45" s="95">
+        <v>252</v>
+      </c>
+      <c r="G45" s="113"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="96" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F46" s="98">
+        <v>165</v>
+      </c>
+      <c r="G46" s="112"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <f>SUM(F5:F49)</f>
+        <v>34615.350000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E18" r:id="rId1" display="javascript:myemilink('21/11/2018','5031.29','74332748326832548259317','TNEBCHENNAIIN')"/>
+    <hyperlink ref="E19" r:id="rId2" display="javascript:myemilink('21/11/2018','8457.90','74332748326832549273507','TNEBCHENNAIIN')"/>
+    <hyperlink ref="E43" r:id="rId3" display="javascript:myemilink('29/11/2018','2530.66','74585768334003512779092','VARUN ENTERPRISES SHELChennai RegioIN')"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K183"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10994,7 +12240,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G161" s="81" t="s">
         <v>371</v>
       </c>
@@ -11008,7 +12254,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="162" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G162" s="82" t="s">
         <v>372</v>
       </c>
@@ -11022,7 +12268,7 @@
         <v>-44000</v>
       </c>
     </row>
-    <row r="163" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G163" s="82" t="s">
         <v>373</v>
       </c>
@@ -11036,7 +12282,7 @@
         <v>-61000</v>
       </c>
     </row>
-    <row r="164" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G164" s="82" t="s">
         <v>374</v>
       </c>
@@ -11053,7 +12299,7 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="165" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G165" s="82" t="s">
         <v>375</v>
       </c>
@@ -11069,8 +12315,11 @@
         <f t="shared" si="0"/>
         <v>-135000</v>
       </c>
-    </row>
-    <row r="166" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K165" s="48">
+        <v>100664.74999999988</v>
+      </c>
+    </row>
+    <row r="166" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G166" s="82" t="s">
         <v>376</v>
       </c>
@@ -11087,7 +12336,7 @@
         <v>-101000</v>
       </c>
     </row>
-    <row r="167" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G167" s="82" t="s">
         <v>377</v>
       </c>
@@ -11101,7 +12350,7 @@
         <v>-284000</v>
       </c>
     </row>
-    <row r="168" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G168" s="82" t="s">
         <v>378</v>
       </c>
@@ -11118,7 +12367,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="169" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G169" s="82" t="s">
         <v>379</v>
       </c>
@@ -11132,7 +12381,7 @@
         <v>-60000</v>
       </c>
     </row>
-    <row r="170" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G170" s="82" t="s">
         <v>380</v>
       </c>
@@ -11146,7 +12395,7 @@
         <v>-57500</v>
       </c>
     </row>
-    <row r="171" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G171" s="82" t="s">
         <v>381</v>
       </c>
@@ -11163,7 +12412,7 @@
         <v>-62000</v>
       </c>
     </row>
-    <row r="172" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G172" s="82" t="s">
         <v>382</v>
       </c>
@@ -11177,7 +12426,7 @@
         <v>-27000</v>
       </c>
     </row>
-    <row r="173" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G173" s="82" t="s">
         <v>383</v>
       </c>
@@ -11185,7 +12434,7 @@
       <c r="I173" s="79"/>
       <c r="J173" s="77"/>
     </row>
-    <row r="174" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E174" s="92"/>
       <c r="G174" s="82" t="s">
         <v>384</v>
@@ -11194,7 +12443,7 @@
       <c r="I174" s="79"/>
       <c r="J174" s="77"/>
     </row>
-    <row r="175" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G175" s="82" t="s">
         <v>373</v>
       </c>
@@ -11202,7 +12451,7 @@
       <c r="I175" s="79"/>
       <c r="J175" s="77"/>
     </row>
-    <row r="176" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G176" s="82" t="s">
         <v>374</v>
       </c>
@@ -11243,8 +12492,8 @@
         <v>385</v>
       </c>
       <c r="J181" s="91">
-        <f>SUM(J161:J165)</f>
-        <v>-560000</v>
+        <f>SUM(J161:J165)+K165</f>
+        <v>-459335.25000000012</v>
       </c>
     </row>
     <row r="182" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11252,8 +12501,8 @@
         <v>386</v>
       </c>
       <c r="J182" s="89">
-        <f>SUM(J166:J172)</f>
-        <v>-671500</v>
+        <f>SUM(J166:J172)-K165</f>
+        <v>-772164.74999999988</v>
       </c>
     </row>
     <row r="183" spans="6:10" x14ac:dyDescent="0.3">
@@ -11268,7 +12517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:K481"/>
@@ -26537,12 +27786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27370,4 +28619,914 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <drawing r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="A67:J67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="110"/>
+    <col min="8" max="8" width="8.88671875" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6" t="s">
+        <v>980</v>
+      </c>
+      <c r="D6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B7" t="s">
+        <v>994</v>
+      </c>
+      <c r="D7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E8" s="111">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E9" s="110">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H10" s="111">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I11">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E12" s="110">
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D13">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J16">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J18" s="108">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" t="s">
+        <v>982</v>
+      </c>
+      <c r="D21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B22" t="s">
+        <v>977</v>
+      </c>
+      <c r="H22" s="110">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G23">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D24">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G26">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B27" t="s">
+        <v>975</v>
+      </c>
+      <c r="F27" s="108">
+        <v>3115.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K28" s="108">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K29" s="108">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K30" s="108">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="108">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D32">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B33" t="s">
+        <v>992</v>
+      </c>
+      <c r="D33">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G34">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>982</v>
+      </c>
+      <c r="D36">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H37">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J38" s="108">
+        <v>25684.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="109">
+        <v>43111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>983</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="109">
+        <v>43170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C40" s="108"/>
+      <c r="I40" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="109">
+        <v>43170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G41" s="108">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="109">
+        <v>43170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E42">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="109">
+        <v>43170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E43" s="108">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="109">
+        <v>43201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>987</v>
+      </c>
+      <c r="E44" s="108">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="109">
+        <v>43201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E45" s="108">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="109">
+        <v>43231</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="109">
+        <v>43262</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E47">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="109">
+        <v>43292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I48">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="109">
+        <v>43292</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="109">
+        <v>43292</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="109">
+        <v>43354</v>
+      </c>
+      <c r="B51" t="s">
+        <v>978</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="109">
+        <v>43354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D52">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="109">
+        <v>43384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E53" s="108">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="109">
+        <v>43384</v>
+      </c>
+      <c r="B54" t="s">
+        <v>977</v>
+      </c>
+      <c r="H54">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="109">
+        <v>43384</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E55" s="108">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="109">
+        <v>43384</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D56">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="109">
+        <v>43415</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E57">
+        <v>652.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="109">
+        <v>43415</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G58" s="108">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="109">
+        <v>43415</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C59" s="108"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="109">
+        <v>43445</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G60">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="109">
+        <v>43445</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D61">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D62">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J66">
+        <v>477.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J67">
+        <v>569.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B69" t="s">
+        <v>975</v>
+      </c>
+      <c r="F69" s="108">
+        <v>2579.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I70">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J71">
+        <v>934.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C72" s="108"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J74" s="108">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J75">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J76">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f>SUM(D2:D79)</f>
+        <v>5948</v>
+      </c>
+      <c r="E80">
+        <f>SUM(E2:E79)</f>
+        <v>17628.900000000001</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:L80" si="0">SUM(F2:F79)</f>
+        <v>5694.59</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>5174</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>4040</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>1883</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="0"/>
+        <v>33984.489999999991</v>
+      </c>
+      <c r="K80">
+        <f>SUM(K2:K79)</f>
+        <v>11429</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -1851,6 +1851,15 @@
     <xf numFmtId="43" fontId="0" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,15 +1875,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,21 +2205,21 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="93"/>
+      <c r="R1" s="98"/>
       <c r="T1" s="5" t="s">
         <v>399</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="H4" s="4">
         <f>(R13*15.25)/1200</f>
-        <v>6735.416666666667</v>
+        <v>5464.583333333333</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="21"/>
@@ -2697,7 +2697,7 @@
         <v>11576</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" ref="O8:O22" si="0">M9-N9</f>
+        <f t="shared" ref="O9:O22" si="0">M9-N9</f>
         <v>1804</v>
       </c>
       <c r="P9" s="29"/>
@@ -2786,7 +2786,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12">
         <f>SUM(H2:H10)</f>
-        <v>37552.216666666667</v>
+        <v>36281.383333333331</v>
       </c>
       <c r="J11" s="21">
         <v>12</v>
@@ -2844,8 +2844,8 @@
       <c r="Q12" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="R12" s="96">
-        <v>170000</v>
+      <c r="R12" s="91">
+        <v>270000</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>393</v>
@@ -2895,9 +2895,9 @@
       <c r="Q13" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="R13" s="98">
+      <c r="R13" s="93">
         <f>R14-R12</f>
-        <v>530000</v>
+        <v>430000</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>398</v>
@@ -2910,7 +2910,7 @@
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="89">
         <v>1200000</v>
       </c>
       <c r="J14" s="21">
@@ -2936,12 +2936,12 @@
       <c r="Q14" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="R14" s="97">
+      <c r="R14" s="92">
         <v>700000</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C15" s="94">
+      <c r="C15" s="89">
         <v>30000</v>
       </c>
       <c r="H15" s="8">
@@ -2972,7 +2972,7 @@
       <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C16" s="94">
+      <c r="C16" s="89">
         <v>50000</v>
       </c>
       <c r="J16" s="21">
@@ -2999,7 +2999,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C17" s="94">
+      <c r="C17" s="89">
         <v>15000</v>
       </c>
       <c r="J17" s="21">
@@ -3219,7 +3219,7 @@
       <c r="A27" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="90">
         <f>SUM(C14:C24)</f>
         <v>1783000</v>
       </c>

--- a/Xpense.xlsx
+++ b/Xpense.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F-Anbu\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="2" r:id="rId1"/>
     <sheet name="Zerodha" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="420">
   <si>
     <t>Asset</t>
   </si>
@@ -1282,12 +1277,15 @@
   </si>
   <si>
     <t>Total - Amma Money</t>
+  </si>
+  <si>
+    <t>Amma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2158,7 +2156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2168,32 +2166,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="16" customWidth="1"/>
-    <col min="15" max="16" width="10.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="16" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="5" customWidth="1"/>
     <col min="17" max="17" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.33203125" style="5"/>
+    <col min="18" max="18" width="11.5703125" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4">
-        <v>8895.8333333333303</v>
+        <v>7129</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -2454,7 +2452,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>387</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2585,13 +2583,18 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5000</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
@@ -2634,10 +2637,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>25000</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -2677,7 +2685,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="D9" s="3"/>
       <c r="H9" s="4"/>
@@ -2722,7 +2730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -2770,7 +2778,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11">
@@ -2781,7 +2789,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="12">
         <f>SUM(F2:F10)</f>
-        <v>71208.023333333331</v>
+        <v>99441.19</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12">
@@ -2820,7 +2828,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="21">
         <v>11</v>
       </c>
@@ -2857,20 +2865,20 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>C11-F11</f>
-        <v>-48440.933333333334</v>
+        <v>-76674.100000000006</v>
       </c>
       <c r="G13" s="8">
         <v>112000</v>
       </c>
       <c r="H13" s="8">
         <f>G13-F11</f>
-        <v>40791.976666666669</v>
+        <v>12558.809999999998</v>
       </c>
       <c r="J13" s="21">
         <v>10</v>
@@ -2906,7 +2914,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2940,13 +2948,13 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" s="89">
         <v>30000</v>
       </c>
       <c r="H15" s="8">
         <f>F6+F8</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J15" s="21">
         <v>8</v>
@@ -2971,7 +2979,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="36"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="89">
         <v>50000</v>
       </c>
@@ -2998,7 +3006,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="89">
         <v>15000</v>
       </c>
@@ -3025,7 +3033,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="36"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
         <v>100000</v>
       </c>
@@ -3052,7 +3060,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="36"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
         <v>28000</v>
       </c>
@@ -3079,7 +3087,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="36"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <f>5000+5000</f>
         <v>10000</v>
@@ -3107,7 +3115,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="36"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="7">
         <v>10000</v>
       </c>
@@ -3134,7 +3142,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="36"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
         <v>35000</v>
       </c>
@@ -3161,7 +3169,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="37"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
         <v>5000</v>
       </c>
@@ -3191,19 +3199,19 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>300000</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M25" s="15">
         <f>M23+P23</f>
         <v>187102</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M26" s="15">
         <f>R23</f>
         <v>700000</v>
@@ -3215,7 +3223,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>418</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>18225</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -3252,7 +3260,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
@@ -3266,22 +3274,22 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
     </row>
   </sheetData>
@@ -3298,35 +3306,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K183"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="4" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.88671875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="44"/>
+    <col min="2" max="2" width="4.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="44"/>
+    <col min="11" max="11" width="15.140625" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="47">
         <v>2</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>29</v>
@@ -3350,15 +3358,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="46">
         <v>42</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>34</v>
@@ -3382,15 +3390,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="46">
         <v>45</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>37</v>
@@ -3414,15 +3422,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
         <v>50</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>40</v>
@@ -3446,15 +3454,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="46">
         <v>54</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>43</v>
@@ -3478,15 +3486,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="45">
         <v>56</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>46</v>
@@ -3510,15 +3518,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="45">
         <v>58</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>49</v>
@@ -3542,15 +3550,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="45">
         <v>62</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>52</v>
@@ -3574,15 +3582,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="45">
         <v>65</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>55</v>
@@ -3606,15 +3614,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="45">
         <v>68</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>58</v>
@@ -3638,15 +3646,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="50">
         <v>74</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>61</v>
@@ -3670,15 +3678,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="50">
         <v>79</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>64</v>
@@ -3702,15 +3710,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="50">
         <v>80</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>66</v>
@@ -3734,15 +3742,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="50">
         <v>84</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>69</v>
@@ -3766,15 +3774,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="50">
         <v>87</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>72</v>
@@ -3798,15 +3806,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="50">
         <v>92</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>75</v>
@@ -3830,15 +3838,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="50">
         <v>93</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>77</v>
@@ -3862,15 +3870,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>98</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>79</v>
@@ -3894,15 +3902,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="50">
         <v>100</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E20" s="50" t="s">
         <v>82</v>
@@ -3926,15 +3934,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="50">
         <v>104</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>85</v>
@@ -3958,15 +3966,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="50">
         <v>108</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E22" s="50" t="s">
         <v>88</v>
@@ -3990,15 +3998,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="50">
         <v>109</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>90</v>
@@ -4022,15 +4030,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="50">
         <v>110</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>93</v>
@@ -4054,15 +4062,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="51">
         <v>113</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E25" s="51" t="s">
         <v>96</v>
@@ -4086,15 +4094,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="51">
         <v>116</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E26" s="51" t="s">
         <v>98</v>
@@ -4118,15 +4126,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="51">
         <v>121</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>101</v>
@@ -4150,15 +4158,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="51">
         <v>122</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>103</v>
@@ -4182,15 +4190,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="51">
         <v>125</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>106</v>
@@ -4214,15 +4222,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="51">
         <v>129</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>108</v>
@@ -4246,15 +4254,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="51">
         <v>130</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E31" s="51" t="s">
         <v>110</v>
@@ -4278,15 +4286,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="51">
         <v>131</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>112</v>
@@ -4310,15 +4318,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="51">
         <v>133</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>115</v>
@@ -4342,15 +4350,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="51">
         <v>134</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>117</v>
@@ -4374,15 +4382,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="51">
         <v>139</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>120</v>
@@ -4406,15 +4414,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="51">
         <v>140</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>122</v>
@@ -4438,15 +4446,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="51">
         <v>145</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>125</v>
@@ -4470,15 +4478,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="51">
         <v>146</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E38" s="51" t="s">
         <v>127</v>
@@ -4502,15 +4510,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="51">
         <v>149</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>130</v>
@@ -4534,15 +4542,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="51">
         <v>152</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E40" s="51" t="s">
         <v>133</v>
@@ -4566,15 +4574,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="51">
         <v>155</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E41" s="51" t="s">
         <v>136</v>
@@ -4598,15 +4606,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="51">
         <v>157</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="E42" s="51" t="s">
         <v>139</v>
@@ -4630,15 +4638,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="51">
         <v>160</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E43" s="51" t="s">
         <v>142</v>
@@ -4662,15 +4670,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="51">
         <v>164</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E44" s="51" t="s">
         <v>144</v>
@@ -4694,15 +4702,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="51">
         <v>165</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E45" s="51" t="s">
         <v>147</v>
@@ -4726,15 +4734,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="52">
         <v>172</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>150</v>
@@ -4758,15 +4766,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="52">
         <v>173</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>152</v>
@@ -4790,15 +4798,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="52">
         <v>182</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>155</v>
@@ -4822,15 +4830,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="52">
         <v>183</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>157</v>
@@ -4854,15 +4862,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="52">
         <v>187</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>159</v>
@@ -4886,15 +4894,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="52">
         <v>195</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="E51" s="52" t="s">
         <v>162</v>
@@ -4918,15 +4926,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="52">
         <v>198</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>165</v>
@@ -4950,15 +4958,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="52">
         <v>201</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>168</v>
@@ -4982,15 +4990,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="52">
         <v>202</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>170</v>
@@ -5014,15 +5022,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="52">
         <v>203</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>171</v>
@@ -5046,15 +5054,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="52">
         <v>204</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>172</v>
@@ -5078,15 +5086,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="52">
         <v>210</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>174</v>
@@ -5110,15 +5118,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="52">
         <v>214</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>177</v>
@@ -5142,15 +5150,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="52">
         <v>215</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>179</v>
@@ -5174,15 +5182,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="52">
         <v>216</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>180</v>
@@ -5206,15 +5214,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="49">
         <v>221</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E61" s="49" t="s">
         <v>182</v>
@@ -5238,15 +5246,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="49">
         <v>224</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E62" s="49" t="s">
         <v>185</v>
@@ -5270,15 +5278,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="49">
         <v>225</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E63" s="49" t="s">
         <v>187</v>
@@ -5302,15 +5310,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="49">
         <v>226</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E64" s="49" t="s">
         <v>188</v>
@@ -5334,15 +5342,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="49">
         <v>232</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="E65" s="49" t="s">
         <v>190</v>
@@ -5366,15 +5374,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="49">
         <v>233</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="E66" s="49" t="s">
         <v>192</v>
@@ -5398,15 +5406,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="49">
         <v>239</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="E67" s="49" t="s">
         <v>194</v>
@@ -5430,15 +5438,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="49">
         <v>243</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="E68" s="49" t="s">
         <v>197</v>
@@ -5462,15 +5470,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="49">
         <v>244</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="E69" s="49" t="s">
         <v>199</v>
@@ -5494,15 +5502,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="49">
         <v>245</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="E70" s="49" t="s">
         <v>200</v>
@@ -5526,15 +5534,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="49">
         <v>249</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="E71" s="49" t="s">
         <v>202</v>
@@ -5558,15 +5566,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="49">
         <v>250</v>
       </c>
       <c r="C72" s="49" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="E72" s="49" t="s">
         <v>204</v>
@@ -5590,15 +5598,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="49">
         <v>251</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="E73" s="49" t="s">
         <v>205</v>
@@ -5622,15 +5630,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="49">
         <v>257</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="E74" s="49" t="s">
         <v>207</v>
@@ -5654,15 +5662,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="49">
         <v>258</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>209</v>
@@ -5686,15 +5694,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="49">
         <v>262</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E76" s="49" t="s">
         <v>211</v>
@@ -5718,15 +5726,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="49">
         <v>263</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E77" s="49" t="s">
         <v>213</v>
@@ -5750,15 +5758,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="49">
         <v>264</v>
       </c>
       <c r="C78" s="49" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E78" s="49" t="s">
         <v>214</v>
@@ -5782,15 +5790,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="49">
         <v>265</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E79" s="49" t="s">
         <v>215</v>
@@ -5814,15 +5822,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="49">
         <v>271</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="E80" s="49" t="s">
         <v>217</v>
@@ -5846,15 +5854,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="49">
         <v>272</v>
       </c>
       <c r="C81" s="49" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="E81" s="49" t="s">
         <v>219</v>
@@ -5878,15 +5886,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="49">
         <v>273</v>
       </c>
       <c r="C82" s="49" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="E82" s="49" t="s">
         <v>220</v>
@@ -5910,15 +5918,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="49">
         <v>278</v>
       </c>
       <c r="C83" s="49" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="E83" s="49" t="s">
         <v>222</v>
@@ -5942,15 +5950,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="49">
         <v>281</v>
       </c>
       <c r="C84" s="49" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="D84" s="49" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="E84" s="49" t="s">
         <v>225</v>
@@ -5974,15 +5982,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="49">
         <v>282</v>
       </c>
       <c r="C85" s="49" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="E85" s="49" t="s">
         <v>227</v>
@@ -6006,15 +6014,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="49">
         <v>283</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="E86" s="49" t="s">
         <v>228</v>
@@ -6038,15 +6046,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="49">
         <v>292</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="E87" s="49" t="s">
         <v>230</v>
@@ -6070,15 +6078,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="49">
         <v>293</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="E88" s="49" t="s">
         <v>232</v>
@@ -6102,15 +6110,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="49">
         <v>296</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="E89" s="49" t="s">
         <v>234</v>
@@ -6134,15 +6142,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="49">
         <v>297</v>
       </c>
       <c r="C90" s="49" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="E90" s="49" t="s">
         <v>236</v>
@@ -6166,15 +6174,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="48">
         <v>302</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D91" s="48" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="E91" s="48" t="s">
         <v>238</v>
@@ -6198,15 +6206,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="48">
         <v>308</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D92" s="48" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E92" s="48" t="s">
         <v>241</v>
@@ -6230,15 +6238,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="48">
         <v>313</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>244</v>
@@ -6262,15 +6270,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="48">
         <v>314</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="E94" s="48" t="s">
         <v>246</v>
@@ -6294,15 +6302,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="48">
         <v>316</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E95" s="48" t="s">
         <v>248</v>
@@ -6326,15 +6334,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="48">
         <v>317</v>
       </c>
       <c r="C96" s="48" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>250</v>
@@ -6358,15 +6366,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="48">
         <v>318</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>251</v>
@@ -6390,15 +6398,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="48">
         <v>325</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="E98" s="48" t="s">
         <v>253</v>
@@ -6422,15 +6430,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="48">
         <v>328</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>256</v>
@@ -6454,15 +6462,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="48">
         <v>332</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="E100" s="48" t="s">
         <v>259</v>
@@ -6486,15 +6494,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="48">
         <v>333</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="E101" s="48" t="s">
         <v>261</v>
@@ -6518,15 +6526,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="48">
         <v>337</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="E102" s="48" t="s">
         <v>263</v>
@@ -6550,15 +6558,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="48">
         <v>338</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>265</v>
@@ -6582,15 +6590,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="48">
         <v>339</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="E104" s="48" t="s">
         <v>266</v>
@@ -6614,15 +6622,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="48">
         <v>346</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="E105" s="48" t="s">
         <v>268</v>
@@ -6646,15 +6654,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="48">
         <v>347</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="E106" s="48" t="s">
         <v>270</v>
@@ -6678,15 +6686,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="53">
         <v>354</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="D107" s="53" t="s">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="E107" s="53" t="s">
         <v>272</v>
@@ -6710,15 +6718,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="53">
         <v>357</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="E108" s="53" t="s">
         <v>275</v>
@@ -6742,15 +6750,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="53">
         <v>360</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D109" s="53" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="E109" s="53" t="s">
         <v>278</v>
@@ -6774,15 +6782,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="53">
         <v>367</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="E110" s="53" t="s">
         <v>281</v>
@@ -6806,15 +6814,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="53">
         <v>374</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="E111" s="53" t="s">
         <v>284</v>
@@ -6838,15 +6846,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="53">
         <v>377</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="E112" s="53" t="s">
         <v>287</v>
@@ -6870,15 +6878,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="53">
         <v>380</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="E113" s="53" t="s">
         <v>290</v>
@@ -6902,15 +6910,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="55">
         <v>383</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="E114" s="55" t="s">
         <v>293</v>
@@ -6934,15 +6942,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="55">
         <v>387</v>
       </c>
       <c r="C115" s="55" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="E115" s="55" t="s">
         <v>296</v>
@@ -6966,15 +6974,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="55">
         <v>389</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="E116" s="55" t="s">
         <v>299</v>
@@ -6998,15 +7006,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="55">
         <v>395</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="D117" s="55" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="E117" s="55" t="s">
         <v>302</v>
@@ -7030,15 +7038,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="55">
         <v>398</v>
       </c>
       <c r="C118" s="55" t="s">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="E118" s="55" t="s">
         <v>305</v>
@@ -7062,15 +7070,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="55">
         <v>400</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="E119" s="55" t="s">
         <v>308</v>
@@ -7094,15 +7102,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="55">
         <v>403</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="E120" s="55" t="s">
         <v>311</v>
@@ -7126,15 +7134,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="55">
         <v>407</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="E121" s="55" t="s">
         <v>314</v>
@@ -7158,15 +7166,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="55">
         <v>410</v>
       </c>
       <c r="C122" s="55" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="E122" s="55" t="s">
         <v>317</v>
@@ -7190,15 +7198,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="55">
         <v>411</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="E123" s="55" t="s">
         <v>319</v>
@@ -7222,15 +7230,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="54">
         <v>417</v>
       </c>
       <c r="C124" s="54" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="D124" s="54" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="E124" s="54" t="s">
         <v>321</v>
@@ -7254,15 +7262,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="54">
         <v>422</v>
       </c>
       <c r="C125" s="54" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D125" s="54" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="E125" s="54" t="s">
         <v>324</v>
@@ -7286,15 +7294,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="54">
         <v>423</v>
       </c>
       <c r="C126" s="54" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D126" s="54" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="E126" s="54" t="s">
         <v>326</v>
@@ -7318,15 +7326,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="54">
         <v>425</v>
       </c>
       <c r="C127" s="54" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="D127" s="54" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="E127" s="54" t="s">
         <v>328</v>
@@ -7350,15 +7358,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="54">
         <v>426</v>
       </c>
       <c r="C128" s="54" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="E128" s="54" t="s">
         <v>330</v>
@@ -7382,15 +7390,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="54">
         <v>431</v>
       </c>
       <c r="C129" s="54" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="D129" s="54" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="E129" s="54" t="s">
         <v>332</v>
@@ -7414,15 +7422,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="54">
         <v>436</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="D130" s="54" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="E130" s="54" t="s">
         <v>335</v>
@@ -7446,15 +7454,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="54">
         <v>443</v>
       </c>
       <c r="C131" s="54" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="E131" s="54" t="s">
         <v>338</v>
@@ -7478,15 +7486,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="54">
         <v>446</v>
       </c>
       <c r="C132" s="54" t="s">
-        <v>27</v>
+        <v>340</v>
       </c>
       <c r="D132" s="54" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="E132" s="54" t="s">
         <v>341</v>
@@ -7510,15 +7518,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="54">
         <v>450</v>
       </c>
       <c r="C133" s="54" t="s">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="D133" s="54" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="E133" s="54" t="s">
         <v>344</v>
@@ -7542,15 +7550,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="54">
         <v>455</v>
       </c>
       <c r="C134" s="54" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="D134" s="54" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="E134" s="54" t="s">
         <v>347</v>
@@ -7574,15 +7582,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="54">
         <v>456</v>
       </c>
       <c r="C135" s="54" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="D135" s="54" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="E135" s="54" t="s">
         <v>349</v>
@@ -7606,15 +7614,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="51">
         <v>459</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="E136" s="51" t="s">
         <v>351</v>
@@ -7638,15 +7646,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="51">
         <v>461</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="E137" s="51" t="s">
         <v>354</v>
@@ -7670,15 +7678,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="51">
         <v>422</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="E138" s="51" t="s">
         <v>324</v>
@@ -7702,15 +7710,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="51">
         <v>423</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="E139" s="51" t="s">
         <v>326</v>
@@ -7734,15 +7742,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="51">
         <v>425</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="D140" s="51" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="E140" s="51" t="s">
         <v>328</v>
@@ -7766,15 +7774,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="51">
         <v>426</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="D141" s="51" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="E141" s="51" t="s">
         <v>330</v>
@@ -7798,15 +7806,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" s="51">
         <v>431</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="D142" s="51" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="E142" s="51" t="s">
         <v>332</v>
@@ -7830,15 +7838,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="51">
         <v>436</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="D143" s="51" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="E143" s="51" t="s">
         <v>335</v>
@@ -7862,21 +7870,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I145" s="14">
         <f>SUM(I2:I144)</f>
         <v>1656000</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="55">
         <v>90</v>
       </c>
       <c r="C148" s="55" t="s">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="E148" s="55" t="s">
         <v>357</v>
@@ -7900,15 +7908,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="55">
         <v>169</v>
       </c>
       <c r="C149" s="55" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="D149" s="55" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="E149" s="55" t="s">
         <v>357</v>
@@ -7932,15 +7940,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="55">
         <v>179</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="D150" s="55" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="E150" s="55" t="s">
         <v>357</v>
@@ -7964,15 +7972,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="55">
         <v>310</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D151" s="55" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E151" s="55" t="s">
         <v>357</v>
@@ -7996,15 +8004,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="55">
         <v>416</v>
       </c>
       <c r="C152" s="55" t="s">
-        <v>27</v>
+        <v>365</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>365</v>
+        <v>27</v>
       </c>
       <c r="E152" s="55" t="s">
         <v>357</v>
@@ -8028,13 +8036,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H154" s="14">
         <f>SUM(H148:H153)</f>
         <v>424500</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H156" s="13" t="s">
         <v>367</v>
       </c>
@@ -8043,8 +8051,8 @@
         <v>-1231500</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G160" s="69"/>
       <c r="H160" s="80" t="s">
         <v>368</v>
@@ -8056,7 +8064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G161" s="77" t="s">
         <v>371</v>
       </c>
@@ -8070,7 +8078,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="162" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G162" s="78" t="s">
         <v>372</v>
       </c>
@@ -8084,7 +8092,7 @@
         <v>-44000</v>
       </c>
     </row>
-    <row r="163" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G163" s="78" t="s">
         <v>373</v>
       </c>
@@ -8098,7 +8106,7 @@
         <v>-61000</v>
       </c>
     </row>
-    <row r="164" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G164" s="78" t="s">
         <v>374</v>
       </c>
@@ -8114,8 +8122,11 @@
         <f t="shared" si="0"/>
         <v>-300000</v>
       </c>
-    </row>
-    <row r="165" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="44">
+        <v>489.82900000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G165" s="78" t="s">
         <v>375</v>
       </c>
@@ -8132,10 +8143,10 @@
         <v>-135000</v>
       </c>
       <c r="K165" s="44">
-        <v>100664.74999999988</v>
-      </c>
-    </row>
-    <row r="166" spans="5:11" x14ac:dyDescent="0.3">
+        <v>100664.76</v>
+      </c>
+    </row>
+    <row r="166" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G166" s="78" t="s">
         <v>376</v>
       </c>
@@ -8152,7 +8163,7 @@
         <v>-101000</v>
       </c>
     </row>
-    <row r="167" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G167" s="78" t="s">
         <v>377</v>
       </c>
@@ -8166,7 +8177,7 @@
         <v>-284000</v>
       </c>
     </row>
-    <row r="168" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G168" s="78" t="s">
         <v>378</v>
       </c>
@@ -8183,7 +8194,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="169" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G169" s="78" t="s">
         <v>379</v>
       </c>
@@ -8197,7 +8208,7 @@
         <v>-60000</v>
       </c>
     </row>
-    <row r="170" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G170" s="78" t="s">
         <v>380</v>
       </c>
@@ -8211,7 +8222,7 @@
         <v>-57500</v>
       </c>
     </row>
-    <row r="171" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G171" s="78" t="s">
         <v>381</v>
       </c>
@@ -8228,7 +8239,7 @@
         <v>-62000</v>
       </c>
     </row>
-    <row r="172" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G172" s="78" t="s">
         <v>382</v>
       </c>
@@ -8242,7 +8253,7 @@
         <v>-27000</v>
       </c>
     </row>
-    <row r="173" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G173" s="78" t="s">
         <v>383</v>
       </c>
@@ -8250,7 +8261,7 @@
       <c r="I173" s="75"/>
       <c r="J173" s="73"/>
     </row>
-    <row r="174" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E174" s="88"/>
       <c r="G174" s="78" t="s">
         <v>384</v>
@@ -8259,7 +8270,7 @@
       <c r="I174" s="75"/>
       <c r="J174" s="73"/>
     </row>
-    <row r="175" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G175" s="78" t="s">
         <v>373</v>
       </c>
@@ -8267,7 +8278,7 @@
       <c r="I175" s="75"/>
       <c r="J175" s="73"/>
     </row>
-    <row r="176" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G176" s="78" t="s">
         <v>374</v>
       </c>
@@ -8275,7 +8286,7 @@
       <c r="I176" s="75"/>
       <c r="J176" s="73"/>
     </row>
-    <row r="177" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G177" s="79" t="s">
         <v>375</v>
       </c>
@@ -8283,7 +8294,7 @@
       <c r="I177" s="75"/>
       <c r="J177" s="73"/>
     </row>
-    <row r="178" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G178" s="68"/>
       <c r="H178" s="83">
         <f>SUM(H161:H177)</f>
@@ -8298,30 +8309,30 @@
         <v>-1231500</v>
       </c>
     </row>
-    <row r="180" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F180" s="88"/>
       <c r="H180" s="88"/>
     </row>
-    <row r="181" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F181" s="88"/>
       <c r="I181" s="86" t="s">
         <v>385</v>
       </c>
       <c r="J181" s="87">
-        <f>SUM(J161:J165)+K165</f>
-        <v>-459335.25000000012</v>
-      </c>
-    </row>
-    <row r="182" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(J161:J165)+K165-K164</f>
+        <v>-459825.06900000002</v>
+      </c>
+    </row>
+    <row r="182" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I182" s="84" t="s">
         <v>386</v>
       </c>
       <c r="J182" s="85">
         <f>SUM(J166:J172)-K165</f>
-        <v>-772164.74999999988</v>
-      </c>
-    </row>
-    <row r="183" spans="6:10" x14ac:dyDescent="0.3">
+        <v>-772164.76</v>
+      </c>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J183" s="76"/>
     </row>
   </sheetData>
